--- a/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001836068428784</v>
+        <v>1.001836068428783</v>
       </c>
       <c r="D2">
-        <v>1.019868214571766</v>
+        <v>1.019868214571765</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.017451414535786</v>
+        <v>1.017451414535785</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.028672861544687</v>
+        <v>1.028672861544686</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008147437404798</v>
+        <v>1.008147437404797</v>
       </c>
       <c r="D3">
         <v>1.024607122781676</v>
@@ -468,25 +468,25 @@
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.023507316957697</v>
+        <v>1.023507316957696</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048862286539619</v>
+        <v>1.048862286539618</v>
       </c>
       <c r="J3">
-        <v>1.028418432634188</v>
+        <v>1.028418432634187</v>
       </c>
       <c r="K3">
-        <v>1.034934541977365</v>
+        <v>1.034934541977364</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.0338479992213</v>
+        <v>1.033847999221299</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012118348743539</v>
+        <v>1.012118348743538</v>
       </c>
       <c r="D4">
-        <v>1.027590619175577</v>
+        <v>1.027590619175576</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.027323551407553</v>
+        <v>1.027323551407552</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050258457065447</v>
+        <v>1.050258457065446</v>
       </c>
       <c r="J4">
-        <v>1.031217064874836</v>
+        <v>1.031217064874835</v>
       </c>
       <c r="K4">
-        <v>1.037367074385813</v>
+        <v>1.037367074385812</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.037103020997505</v>
+        <v>1.037103020997503</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013761995333486</v>
+        <v>1.013761995333487</v>
       </c>
       <c r="D5">
-        <v>1.028825929379583</v>
+        <v>1.028825929379584</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.028904568210223</v>
+        <v>1.028904568210224</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050832973548177</v>
+        <v>1.050832973548178</v>
       </c>
       <c r="J5">
-        <v>1.032374179045499</v>
+        <v>1.0323741790455</v>
       </c>
       <c r="K5">
-        <v>1.038372266407821</v>
+        <v>1.038372266407823</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.038450042671673</v>
+        <v>1.038450042671674</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,31 +573,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014036498906084</v>
+        <v>1.014036498906083</v>
       </c>
       <c r="D6">
         <v>1.029032256849731</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.029168692428233</v>
+        <v>1.029168692428232</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050928721938383</v>
+        <v>1.050928721938382</v>
       </c>
       <c r="J6">
-        <v>1.032567349481389</v>
+        <v>1.032567349481388</v>
       </c>
       <c r="K6">
-        <v>1.038540041458586</v>
+        <v>1.038540041458585</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
         <v>1.038674987753749</v>
@@ -617,10 +617,10 @@
         <v>1.027607198783365</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.027344767206955</v>
+        <v>1.027344767206956</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>1.037380573355874</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
         <v>1.037121102708205</v>
@@ -655,7 +655,7 @@
         <v>1.021487473287586</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
         <v>1.019519958355794</v>
@@ -667,16 +667,16 @@
         <v>1.047390041369571</v>
       </c>
       <c r="J8">
-        <v>1.025486239404732</v>
+        <v>1.025486239404733</v>
       </c>
       <c r="K8">
-        <v>1.032384041562331</v>
+        <v>1.032384041562332</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.030441854965946</v>
+        <v>1.030441854965947</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,13 +708,13 @@
         <v>1.014664768946282</v>
       </c>
       <c r="K9">
-        <v>1.022957554838362</v>
+        <v>1.022957554838361</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834082</v>
       </c>
       <c r="M9">
-        <v>1.017904575391346</v>
+        <v>1.017904575391345</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -731,10 +731,10 @@
         <v>1.00185945418324</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>0.994482705419705</v>
+        <v>0.9944827054197045</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -749,10 +749,10 @@
         <v>1.01619521657539</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.008952296021889</v>
+        <v>1.008952296021888</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.972864858594524</v>
+        <v>0.9728648585945249</v>
       </c>
       <c r="D11">
-        <v>0.9981820778064286</v>
+        <v>0.9981820778064291</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9897980874484694</v>
+        <v>0.9897980874484702</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9710032052022747</v>
+        <v>0.9710032052022749</v>
       </c>
       <c r="D12">
-        <v>0.9967931921397092</v>
+        <v>0.9967931921397097</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9880290673564709</v>
+        <v>0.9880290673564714</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>1.002087559618468</v>
       </c>
       <c r="K12">
-        <v>1.011982088493722</v>
+        <v>1.011982088493723</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.003389262214919</v>
+        <v>1.00338926221492</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9714040388725678</v>
+        <v>0.971404038872568</v>
       </c>
       <c r="D13">
         <v>0.9970921799426385</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.9884098759364469</v>
+        <v>0.988409875936447</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>1.012231080080486</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>1.003717751720448</v>
+        <v>1.003717751720449</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9727116471260047</v>
+        <v>0.9727116471260069</v>
       </c>
       <c r="D14">
-        <v>0.998067750452037</v>
+        <v>0.9980677504520385</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9896524637300759</v>
+        <v>0.989652463730077</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03600371695707</v>
+        <v>1.036003716957071</v>
       </c>
       <c r="J14">
-        <v>1.003302777263991</v>
+        <v>1.003302777263992</v>
       </c>
       <c r="K14">
-        <v>1.013043215230986</v>
+        <v>1.013043215230988</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.004789422712208</v>
+        <v>1.00478942271221</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9735129545515672</v>
+        <v>0.9735129545515662</v>
       </c>
       <c r="D15">
-        <v>0.9986657382300033</v>
+        <v>0.9986657382300024</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.990414157794268</v>
+        <v>0.990414157794267</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.036300690875567</v>
       </c>
       <c r="J15">
-        <v>1.003872658145775</v>
+        <v>1.003872658145774</v>
       </c>
       <c r="K15">
-        <v>1.013540792900633</v>
+        <v>1.013540792900632</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.005446194661048</v>
+        <v>1.005446194661046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9781124451857313</v>
+        <v>0.9781124451857328</v>
       </c>
       <c r="D16">
-        <v>1.002100387631987</v>
+        <v>1.002100387631988</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9947896750575606</v>
+        <v>0.994789675057562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038000786547389</v>
+        <v>1.03800078654739</v>
       </c>
       <c r="J16">
-        <v>1.007142542146501</v>
+        <v>1.007142542146503</v>
       </c>
       <c r="K16">
-        <v>1.016395255633363</v>
+        <v>1.016395255633364</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.009216688643492</v>
+        <v>1.009216688643493</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9809428883354048</v>
+        <v>0.9809428883354059</v>
       </c>
       <c r="D17">
         <v>1.00421581679462</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9974851795731858</v>
+        <v>0.9974851795731867</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.039042950859433</v>
       </c>
       <c r="J17">
-        <v>1.009153627919112</v>
+        <v>1.009153627919114</v>
       </c>
       <c r="K17">
-        <v>1.018150329055553</v>
+        <v>1.018150329055554</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.01153744684931</v>
+        <v>1.011537446849311</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.982574913854074</v>
+        <v>0.9825749138540749</v>
       </c>
       <c r="D18">
-        <v>1.005436169018813</v>
+        <v>1.005436169018814</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9990404040236871</v>
+        <v>0.9990404040236882</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039642376357023</v>
+        <v>1.039642376357024</v>
       </c>
       <c r="J18">
-        <v>1.010312776720255</v>
+        <v>1.010312776720256</v>
       </c>
       <c r="K18">
-        <v>1.019161722254895</v>
+        <v>1.019161722254896</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.012875721927332</v>
+        <v>1.012875721927333</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9831282538605133</v>
+        <v>0.9831282538605119</v>
       </c>
       <c r="D19">
-        <v>1.005850028371478</v>
+        <v>1.005850028371476</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="F19">
-        <v>0.9995678716308</v>
+        <v>0.9995678716307985</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039845357938161</v>
+        <v>1.03984535793816</v>
       </c>
       <c r="J19">
-        <v>1.010705710685631</v>
+        <v>1.01070571068563</v>
       </c>
       <c r="K19">
-        <v>1.01950453523588</v>
+        <v>1.019504535235879</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
       <c r="M19">
-        <v>1.013329484839072</v>
+        <v>1.013329484839071</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9806411831343055</v>
+        <v>0.980641183134305</v>
       </c>
       <c r="D20">
-        <v>1.003990263429747</v>
+        <v>1.003990263429746</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9971977527631359</v>
+        <v>0.9971977527631356</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038932017014656</v>
+        <v>1.038932017014655</v>
       </c>
       <c r="J20">
-        <v>1.008939305282244</v>
+        <v>1.008939305282243</v>
       </c>
       <c r="K20">
-        <v>1.017963309880435</v>
+        <v>1.017963309880434</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>1.011290055930608</v>
+        <v>1.011290055930607</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,31 +1143,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9723275008818832</v>
+        <v>0.9723275008818829</v>
       </c>
       <c r="D21">
-        <v>0.9977811169635137</v>
+        <v>0.9977811169635132</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148893</v>
       </c>
       <c r="F21">
-        <v>0.9892873704794448</v>
+        <v>0.9892873704794439</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03586126789694</v>
+        <v>1.035861267896939</v>
       </c>
       <c r="J21">
-        <v>1.003029555916892</v>
+        <v>1.003029555916891</v>
       </c>
       <c r="K21">
-        <v>1.012804649054016</v>
+        <v>1.012804649054015</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981063</v>
       </c>
       <c r="M21">
         <v>1.004474579389386</v>
@@ -1178,28 +1178,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9669123085033982</v>
+        <v>0.9669123085033976</v>
       </c>
       <c r="D22">
-        <v>0.9937434630822644</v>
+        <v>0.9937434630822635</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9841450600155444</v>
+        <v>0.9841450600155439</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033847923743831</v>
+        <v>1.03384792374383</v>
       </c>
       <c r="J22">
-        <v>0.9991767203201237</v>
+        <v>0.9991767203201229</v>
       </c>
       <c r="K22">
         <v>1.009439890507817</v>
@@ -1222,13 +1222,13 @@
         <v>0.9698017416578961</v>
       </c>
       <c r="D23">
-        <v>0.9958971820991125</v>
+        <v>0.9958971820991122</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.986887890691417</v>
+        <v>0.9868878906914169</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9807775690238401</v>
+        <v>0.9807775690238407</v>
       </c>
       <c r="D24">
         <v>1.004092223011348</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011822</v>
       </c>
       <c r="F24">
-        <v>0.9973276809938169</v>
+        <v>0.9973276809938176</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03898216929241</v>
+        <v>1.038982169292411</v>
       </c>
       <c r="J24">
-        <v>1.009036191233399</v>
+        <v>1.0090361912334</v>
       </c>
       <c r="K24">
-        <v>1.018047853731978</v>
+        <v>1.018047853731979</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442542</v>
       </c>
       <c r="M24">
-        <v>1.011401888636184</v>
+        <v>1.011401888636185</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9927786808305501</v>
+        <v>0.9927786808305503</v>
       </c>
       <c r="D25">
         <v>1.013075359996359</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="F25">
         <v>1.008780769579392</v>
@@ -1313,13 +1313,13 @@
         <v>1.043363082872233</v>
       </c>
       <c r="J25">
-        <v>1.017551539318261</v>
+        <v>1.017551539318262</v>
       </c>
       <c r="K25">
-        <v>1.025474032937506</v>
+        <v>1.025474032937507</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9598754494005832</v>
       </c>
       <c r="M25">
         <v>1.021244287670965</v>

--- a/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001836068428783</v>
+        <v>1.001836068428784</v>
       </c>
       <c r="D2">
-        <v>1.019868214571765</v>
+        <v>1.019868214571766</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.017451414535785</v>
+        <v>1.017451414535786</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.028672861544686</v>
+        <v>1.028672861544687</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008147437404797</v>
+        <v>1.008147437404798</v>
       </c>
       <c r="D3">
         <v>1.024607122781676</v>
@@ -468,25 +468,25 @@
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.023507316957696</v>
+        <v>1.023507316957697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048862286539618</v>
+        <v>1.048862286539619</v>
       </c>
       <c r="J3">
-        <v>1.028418432634187</v>
+        <v>1.028418432634188</v>
       </c>
       <c r="K3">
-        <v>1.034934541977364</v>
+        <v>1.034934541977365</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.033847999221299</v>
+        <v>1.0338479992213</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012118348743538</v>
+        <v>1.012118348743539</v>
       </c>
       <c r="D4">
-        <v>1.027590619175576</v>
+        <v>1.027590619175577</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.027323551407552</v>
+        <v>1.027323551407553</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050258457065446</v>
+        <v>1.050258457065447</v>
       </c>
       <c r="J4">
-        <v>1.031217064874835</v>
+        <v>1.031217064874836</v>
       </c>
       <c r="K4">
-        <v>1.037367074385812</v>
+        <v>1.037367074385813</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.037103020997503</v>
+        <v>1.037103020997505</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013761995333487</v>
+        <v>1.013761995333486</v>
       </c>
       <c r="D5">
-        <v>1.028825929379584</v>
+        <v>1.028825929379583</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.028904568210224</v>
+        <v>1.028904568210223</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050832973548178</v>
+        <v>1.050832973548177</v>
       </c>
       <c r="J5">
-        <v>1.0323741790455</v>
+        <v>1.032374179045499</v>
       </c>
       <c r="K5">
-        <v>1.038372266407823</v>
+        <v>1.038372266407821</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.038450042671674</v>
+        <v>1.038450042671673</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,31 +573,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014036498906083</v>
+        <v>1.014036498906084</v>
       </c>
       <c r="D6">
         <v>1.029032256849731</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.029168692428232</v>
+        <v>1.029168692428233</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050928721938382</v>
+        <v>1.050928721938383</v>
       </c>
       <c r="J6">
-        <v>1.032567349481388</v>
+        <v>1.032567349481389</v>
       </c>
       <c r="K6">
-        <v>1.038540041458585</v>
+        <v>1.038540041458586</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
         <v>1.038674987753749</v>
@@ -617,10 +617,10 @@
         <v>1.027607198783365</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.027344767206956</v>
+        <v>1.027344767206955</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>1.037380573355874</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
         <v>1.037121102708205</v>
@@ -655,7 +655,7 @@
         <v>1.021487473287586</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
         <v>1.019519958355794</v>
@@ -667,16 +667,16 @@
         <v>1.047390041369571</v>
       </c>
       <c r="J8">
-        <v>1.025486239404733</v>
+        <v>1.025486239404732</v>
       </c>
       <c r="K8">
-        <v>1.032384041562332</v>
+        <v>1.032384041562331</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.030441854965947</v>
+        <v>1.030441854965946</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,13 +708,13 @@
         <v>1.014664768946282</v>
       </c>
       <c r="K9">
-        <v>1.022957554838361</v>
+        <v>1.022957554838362</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834082</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.017904575391345</v>
+        <v>1.017904575391346</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -731,10 +731,10 @@
         <v>1.00185945418324</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9944827054197045</v>
+        <v>0.994482705419705</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -749,10 +749,10 @@
         <v>1.01619521657539</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.008952296021888</v>
+        <v>1.008952296021889</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9728648585945249</v>
+        <v>0.972864858594524</v>
       </c>
       <c r="D11">
-        <v>0.9981820778064291</v>
+        <v>0.9981820778064286</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9897980874484702</v>
+        <v>0.9897980874484694</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9710032052022749</v>
+        <v>0.9710032052022747</v>
       </c>
       <c r="D12">
-        <v>0.9967931921397097</v>
+        <v>0.9967931921397092</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9880290673564714</v>
+        <v>0.9880290673564709</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>1.002087559618468</v>
       </c>
       <c r="K12">
-        <v>1.011982088493723</v>
+        <v>1.011982088493722</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.00338926221492</v>
+        <v>1.003389262214919</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.971404038872568</v>
+        <v>0.9714040388725678</v>
       </c>
       <c r="D13">
         <v>0.9970921799426385</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.988409875936447</v>
+        <v>0.9884098759364469</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>1.012231080080486</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.003717751720449</v>
+        <v>1.003717751720448</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9727116471260069</v>
+        <v>0.9727116471260047</v>
       </c>
       <c r="D14">
-        <v>0.9980677504520385</v>
+        <v>0.998067750452037</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.989652463730077</v>
+        <v>0.9896524637300759</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036003716957071</v>
+        <v>1.03600371695707</v>
       </c>
       <c r="J14">
-        <v>1.003302777263992</v>
+        <v>1.003302777263991</v>
       </c>
       <c r="K14">
-        <v>1.013043215230988</v>
+        <v>1.013043215230986</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.00478942271221</v>
+        <v>1.004789422712208</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9735129545515662</v>
+        <v>0.9735129545515672</v>
       </c>
       <c r="D15">
-        <v>0.9986657382300024</v>
+        <v>0.9986657382300033</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.990414157794267</v>
+        <v>0.990414157794268</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.036300690875567</v>
       </c>
       <c r="J15">
-        <v>1.003872658145774</v>
+        <v>1.003872658145775</v>
       </c>
       <c r="K15">
-        <v>1.013540792900632</v>
+        <v>1.013540792900633</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.005446194661046</v>
+        <v>1.005446194661048</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9781124451857328</v>
+        <v>0.9781124451857313</v>
       </c>
       <c r="D16">
-        <v>1.002100387631988</v>
+        <v>1.002100387631987</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.994789675057562</v>
+        <v>0.9947896750575606</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03800078654739</v>
+        <v>1.038000786547389</v>
       </c>
       <c r="J16">
-        <v>1.007142542146503</v>
+        <v>1.007142542146501</v>
       </c>
       <c r="K16">
-        <v>1.016395255633364</v>
+        <v>1.016395255633363</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.009216688643493</v>
+        <v>1.009216688643492</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9809428883354059</v>
+        <v>0.9809428883354048</v>
       </c>
       <c r="D17">
         <v>1.00421581679462</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9974851795731867</v>
+        <v>0.9974851795731858</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.039042950859433</v>
       </c>
       <c r="J17">
-        <v>1.009153627919114</v>
+        <v>1.009153627919112</v>
       </c>
       <c r="K17">
-        <v>1.018150329055554</v>
+        <v>1.018150329055553</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.011537446849311</v>
+        <v>1.01153744684931</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9825749138540749</v>
+        <v>0.982574913854074</v>
       </c>
       <c r="D18">
-        <v>1.005436169018814</v>
+        <v>1.005436169018813</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9990404040236882</v>
+        <v>0.9990404040236871</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039642376357024</v>
+        <v>1.039642376357023</v>
       </c>
       <c r="J18">
-        <v>1.010312776720256</v>
+        <v>1.010312776720255</v>
       </c>
       <c r="K18">
-        <v>1.019161722254896</v>
+        <v>1.019161722254895</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.012875721927333</v>
+        <v>1.012875721927332</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9831282538605119</v>
+        <v>0.9831282538605133</v>
       </c>
       <c r="D19">
-        <v>1.005850028371476</v>
+        <v>1.005850028371478</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9995678716307985</v>
+        <v>0.9995678716308</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03984535793816</v>
+        <v>1.039845357938161</v>
       </c>
       <c r="J19">
-        <v>1.01070571068563</v>
+        <v>1.010705710685631</v>
       </c>
       <c r="K19">
-        <v>1.019504535235879</v>
+        <v>1.01950453523588</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.013329484839071</v>
+        <v>1.013329484839072</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.980641183134305</v>
+        <v>0.9806411831343055</v>
       </c>
       <c r="D20">
-        <v>1.003990263429746</v>
+        <v>1.003990263429747</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9971977527631356</v>
+        <v>0.9971977527631359</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038932017014655</v>
+        <v>1.038932017014656</v>
       </c>
       <c r="J20">
-        <v>1.008939305282243</v>
+        <v>1.008939305282244</v>
       </c>
       <c r="K20">
-        <v>1.017963309880434</v>
+        <v>1.017963309880435</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.011290055930607</v>
+        <v>1.011290055930608</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,31 +1143,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9723275008818829</v>
+        <v>0.9723275008818832</v>
       </c>
       <c r="D21">
-        <v>0.9977811169635132</v>
+        <v>0.9977811169635137</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148893</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9892873704794439</v>
+        <v>0.9892873704794448</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035861267896939</v>
+        <v>1.03586126789694</v>
       </c>
       <c r="J21">
-        <v>1.003029555916891</v>
+        <v>1.003029555916892</v>
       </c>
       <c r="K21">
-        <v>1.012804649054015</v>
+        <v>1.012804649054016</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981063</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
         <v>1.004474579389386</v>
@@ -1178,28 +1178,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9669123085033976</v>
+        <v>0.9669123085033982</v>
       </c>
       <c r="D22">
-        <v>0.9937434630822635</v>
+        <v>0.9937434630822644</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9841450600155439</v>
+        <v>0.9841450600155444</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03384792374383</v>
+        <v>1.033847923743831</v>
       </c>
       <c r="J22">
-        <v>0.9991767203201229</v>
+        <v>0.9991767203201237</v>
       </c>
       <c r="K22">
         <v>1.009439890507817</v>
@@ -1222,13 +1222,13 @@
         <v>0.9698017416578961</v>
       </c>
       <c r="D23">
-        <v>0.9958971820991122</v>
+        <v>0.9958971820991125</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9868878906914169</v>
+        <v>0.986887890691417</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9807775690238407</v>
+        <v>0.9807775690238401</v>
       </c>
       <c r="D24">
         <v>1.004092223011348</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011822</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9973276809938176</v>
+        <v>0.9973276809938169</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038982169292411</v>
+        <v>1.03898216929241</v>
       </c>
       <c r="J24">
-        <v>1.0090361912334</v>
+        <v>1.009036191233399</v>
       </c>
       <c r="K24">
-        <v>1.018047853731979</v>
+        <v>1.018047853731978</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442542</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.011401888636185</v>
+        <v>1.011401888636184</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9927786808305503</v>
+        <v>0.9927786808305501</v>
       </c>
       <c r="D25">
         <v>1.013075359996359</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
         <v>1.008780769579392</v>
@@ -1313,13 +1313,13 @@
         <v>1.043363082872233</v>
       </c>
       <c r="J25">
-        <v>1.017551539318262</v>
+        <v>1.017551539318261</v>
       </c>
       <c r="K25">
-        <v>1.025474032937507</v>
+        <v>1.025474032937506</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
         <v>1.021244287670965</v>

--- a/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001836068428784</v>
+        <v>1.001836633840026</v>
       </c>
       <c r="D2">
-        <v>1.019868214571766</v>
+        <v>1.019869073084971</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.017451414535786</v>
+        <v>1.017452125711728</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046621150860693</v>
+        <v>1.046621621621679</v>
       </c>
       <c r="J2">
-        <v>1.023962001348585</v>
+        <v>1.023962549933586</v>
       </c>
       <c r="K2">
-        <v>1.031057522652395</v>
+        <v>1.031058369782939</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.028672861544687</v>
+        <v>1.028673563235118</v>
+      </c>
+      <c r="N2">
+        <v>1.018119498051986</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008147437404798</v>
+        <v>1.008144437427431</v>
       </c>
       <c r="D3">
-        <v>1.024607122781676</v>
+        <v>1.024605150089214</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.023507316957697</v>
+        <v>1.023505049357334</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048862286539619</v>
+        <v>1.048861093302041</v>
       </c>
       <c r="J3">
-        <v>1.028418432634188</v>
+        <v>1.028415512654169</v>
       </c>
       <c r="K3">
-        <v>1.034934541977365</v>
+        <v>1.034932593042876</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.0338479992213</v>
+        <v>1.033845759003538</v>
+      </c>
+      <c r="N3">
+        <v>1.021180546131564</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012118348743539</v>
+        <v>1.012113138921378</v>
       </c>
       <c r="D4">
-        <v>1.027590619175577</v>
+        <v>1.027586888324279</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.027323551407553</v>
+        <v>1.027319439473527</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050258457065447</v>
+        <v>1.050256228556338</v>
       </c>
       <c r="J4">
-        <v>1.031217064874836</v>
+        <v>1.031211984057363</v>
       </c>
       <c r="K4">
-        <v>1.037367074385813</v>
+        <v>1.037363385631139</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.037103020997505</v>
+        <v>1.037098955489755</v>
+      </c>
+      <c r="N4">
+        <v>1.023101808385469</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013761995333486</v>
+        <v>1.013755877946962</v>
       </c>
       <c r="D5">
-        <v>1.028825929379583</v>
+        <v>1.028821475759653</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.028904568210223</v>
+        <v>1.028899699268597</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050832973548177</v>
+        <v>1.05083031899326</v>
       </c>
       <c r="J5">
-        <v>1.032374179045499</v>
+        <v>1.032368208373613</v>
       </c>
       <c r="K5">
-        <v>1.038372266407821</v>
+        <v>1.038367861643218</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.038450042671673</v>
+        <v>1.038445227131369</v>
+      </c>
+      <c r="N5">
+        <v>1.023895901904837</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014036498906084</v>
+        <v>1.014030230344193</v>
       </c>
       <c r="D6">
-        <v>1.029032256849731</v>
+        <v>1.029027682797417</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.029168692428233</v>
+        <v>1.029163697415503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050928721938383</v>
+        <v>1.050925996366752</v>
       </c>
       <c r="J6">
-        <v>1.032567349481389</v>
+        <v>1.032561230448125</v>
       </c>
       <c r="K6">
-        <v>1.038540041458586</v>
+        <v>1.038535517343435</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.038674987753749</v>
+        <v>1.038670047256293</v>
+      </c>
+      <c r="N6">
+        <v>1.024028453222001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012140410635461</v>
+        <v>1.012135188604343</v>
       </c>
       <c r="D7">
-        <v>1.027607198783365</v>
+        <v>1.027603458211747</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.027344767206955</v>
+        <v>1.027340645087588</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050266182012793</v>
+        <v>1.050263947775683</v>
       </c>
       <c r="J7">
-        <v>1.031232601482261</v>
+        <v>1.031227508703378</v>
       </c>
       <c r="K7">
-        <v>1.037380573355874</v>
+        <v>1.037376874974799</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.037121102708205</v>
+        <v>1.037117027112217</v>
+      </c>
+      <c r="N7">
+        <v>1.023112471767269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003993241855555</v>
+        <v>1.003992581048108</v>
       </c>
       <c r="D8">
-        <v>1.021487473287586</v>
+        <v>1.021487358865377</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.019519958355794</v>
+        <v>1.019519644641595</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047390041369571</v>
+        <v>1.047389940723678</v>
       </c>
       <c r="J8">
-        <v>1.025486239404732</v>
+        <v>1.025485597557726</v>
       </c>
       <c r="K8">
-        <v>1.032384041562331</v>
+        <v>1.032383928609562</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.030441854965946</v>
+        <v>1.030441545300024</v>
+      </c>
+      <c r="N8">
+        <v>1.019166692256606</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9887068182015241</v>
+        <v>0.9887150319275294</v>
       </c>
       <c r="D9">
-        <v>1.010025059941053</v>
+        <v>1.010031967197095</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.004890345461999</v>
+        <v>1.004897458464701</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041884183241823</v>
+        <v>1.041888197227526</v>
       </c>
       <c r="J9">
-        <v>1.014664768946282</v>
+        <v>1.014672683244048</v>
       </c>
       <c r="K9">
-        <v>1.022957554838362</v>
+        <v>1.022964352860518</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.017904575391346</v>
+        <v>1.017911574427513</v>
+      </c>
+      <c r="N9">
+        <v>1.011727794948319</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.977789961513424</v>
+        <v>0.9778048046556422</v>
       </c>
       <c r="D10">
-        <v>1.00185945418324</v>
+        <v>1.001871574719389</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.994482705419705</v>
+        <v>0.9944953789961203</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037881847737544</v>
+        <v>1.037888903927849</v>
       </c>
       <c r="J10">
-        <v>1.006913353201252</v>
+        <v>1.00692756865114</v>
       </c>
       <c r="K10">
-        <v>1.01619521657539</v>
+        <v>1.016207119329179</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.008952296021889</v>
+        <v>1.008964737458502</v>
+      </c>
+      <c r="N10">
+        <v>1.00639433423286</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.972864858594524</v>
+        <v>0.9728827824815284</v>
       </c>
       <c r="D11">
-        <v>0.9981820778064286</v>
+        <v>0.998196611005293</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9897980874484694</v>
+        <v>0.9898133482712941</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03606051641842</v>
+        <v>1.036068977208128</v>
       </c>
       <c r="J11">
-        <v>1.003411744121302</v>
+        <v>1.003428861439632</v>
       </c>
       <c r="K11">
-        <v>1.013138359101888</v>
+        <v>1.013152616924516</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.004914995979157</v>
+        <v>1.004929961182968</v>
+      </c>
+      <c r="N11">
+        <v>1.003983980441241</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9710032052022747</v>
+        <v>0.9710223091723794</v>
       </c>
       <c r="D12">
-        <v>0.9967931921397092</v>
+        <v>0.9968086477788337</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9880290673564709</v>
+        <v>0.9880453197177133</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035369801907301</v>
+        <v>1.035378799198819</v>
       </c>
       <c r="J12">
-        <v>1.002087559618468</v>
+        <v>1.0021057840914</v>
       </c>
       <c r="K12">
-        <v>1.011982088493722</v>
+        <v>1.011997245531759</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.003389262214919</v>
+        <v>1.003405193222171</v>
+      </c>
+      <c r="N12">
+        <v>1.003072330172091</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9714040388725678</v>
+        <v>0.9714228880182124</v>
       </c>
       <c r="D13">
-        <v>0.9970921799426385</v>
+        <v>0.9971074364742069</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9884098759364469</v>
+        <v>0.9884259141649498</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035518620693907</v>
+        <v>1.035527502206179</v>
       </c>
       <c r="J13">
-        <v>1.002372696221892</v>
+        <v>1.002390681824748</v>
       </c>
       <c r="K13">
-        <v>1.012231080080486</v>
+        <v>1.012246043079971</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.003717751720448</v>
+        <v>1.003733474218289</v>
+      </c>
+      <c r="N13">
+        <v>1.003268641862495</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9727116471260047</v>
+        <v>0.9727296678030183</v>
       </c>
       <c r="D14">
-        <v>0.998067750452037</v>
+        <v>0.9980823593455684</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9896524637300759</v>
+        <v>0.9896678058685972</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03600371695707</v>
+        <v>1.036012221782382</v>
       </c>
       <c r="J14">
-        <v>1.003302777263991</v>
+        <v>1.003319985482575</v>
       </c>
       <c r="K14">
-        <v>1.013043215230986</v>
+        <v>1.013057546867412</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.004789422712208</v>
+        <v>1.004804467150406</v>
+      </c>
+      <c r="N14">
+        <v>1.003908963686993</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9735129545515672</v>
+        <v>0.9735304696564352</v>
       </c>
       <c r="D15">
-        <v>0.9986657382300033</v>
+        <v>0.9986799516690917</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.990414157794268</v>
+        <v>0.9904290752089142</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036300690875567</v>
+        <v>1.03630896562274</v>
       </c>
       <c r="J15">
-        <v>1.003872658145775</v>
+        <v>1.003889391375593</v>
       </c>
       <c r="K15">
-        <v>1.013540792900633</v>
+        <v>1.013554738859549</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.005446194661048</v>
+        <v>1.005460825188664</v>
+      </c>
+      <c r="N15">
+        <v>1.0043012848493</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9781124451857313</v>
+        <v>0.978127088639088</v>
       </c>
       <c r="D16">
-        <v>1.002100387631987</v>
+        <v>1.002112351560137</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9947896750575606</v>
+        <v>0.9948021809992984</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038000786547389</v>
+        <v>1.038007751494035</v>
       </c>
       <c r="J16">
-        <v>1.007142542146501</v>
+        <v>1.007156568926399</v>
       </c>
       <c r="K16">
-        <v>1.016395255633363</v>
+        <v>1.016407005358647</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.009216688643492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.009228966374031</v>
+      </c>
+      <c r="N16">
+        <v>1.00655207774596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9809428883354048</v>
+        <v>0.9809557894958814</v>
       </c>
       <c r="D17">
-        <v>1.00421581679462</v>
+        <v>1.004226413176145</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9974851795731858</v>
+        <v>0.9974962232538814</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039042950859433</v>
+        <v>1.039049118668291</v>
       </c>
       <c r="J17">
-        <v>1.009153627919112</v>
+        <v>1.009166005568122</v>
       </c>
       <c r="K17">
-        <v>1.018150329055553</v>
+        <v>1.018160741659896</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.01153744684931</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.011548295628969</v>
+      </c>
+      <c r="N17">
+        <v>1.007936130201895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.982574913854074</v>
+        <v>0.9825868187270737</v>
       </c>
       <c r="D18">
-        <v>1.005436169018813</v>
+        <v>1.005445982494697</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9990404040236871</v>
+        <v>0.9990506118418596</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039642376357023</v>
+        <v>1.039648087508315</v>
       </c>
       <c r="J18">
-        <v>1.010312776720255</v>
+        <v>1.010324208951024</v>
       </c>
       <c r="K18">
-        <v>1.019161722254895</v>
+        <v>1.019171368696618</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.012875721927332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.012885753109414</v>
+      </c>
+      <c r="N18">
+        <v>1.008733772207332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9831282538605133</v>
+        <v>0.9831398222947187</v>
       </c>
       <c r="D19">
-        <v>1.005850028371478</v>
+        <v>1.005859577318337</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9995678716308</v>
+        <v>0.9995777972342728</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039845357938161</v>
+        <v>1.039850914742503</v>
       </c>
       <c r="J19">
-        <v>1.010705710685631</v>
+        <v>1.010716823260615</v>
       </c>
       <c r="K19">
-        <v>1.01950453523588</v>
+        <v>1.019513922693953</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.013329484839072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.013339239845297</v>
+      </c>
+      <c r="N19">
+        <v>1.009004143858174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9806411831343055</v>
+        <v>0.9806542691333789</v>
       </c>
       <c r="D20">
-        <v>1.003990263429747</v>
+        <v>1.004001004989433</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9971977527631359</v>
+        <v>0.9972089515431606</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038932017014656</v>
+        <v>1.038938269479247</v>
       </c>
       <c r="J20">
-        <v>1.008939305282244</v>
+        <v>1.008951858139859</v>
       </c>
       <c r="K20">
-        <v>1.017963309880435</v>
+        <v>1.01797386450399</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.011290055930608</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.011301056358203</v>
+      </c>
+      <c r="N20">
+        <v>1.007788640929792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9723275008818832</v>
+        <v>0.9723457644982086</v>
       </c>
       <c r="D21">
-        <v>0.9977811169635137</v>
+        <v>0.997795915819215</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9892873704794448</v>
+        <v>0.9893029167252182</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03586126789694</v>
+        <v>1.035869883224847</v>
       </c>
       <c r="J21">
-        <v>1.003029555916892</v>
+        <v>1.003046992219418</v>
       </c>
       <c r="K21">
-        <v>1.012804649054016</v>
+        <v>1.012819165912737</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.004474579389386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.004489822687605</v>
+      </c>
+      <c r="N21">
+        <v>1.003720865959838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9669123085033982</v>
+        <v>0.9669340369663656</v>
       </c>
       <c r="D22">
-        <v>0.9937434630822644</v>
+        <v>0.9937609667193739</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9841450600155444</v>
+        <v>0.9841635184634414</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033847923743831</v>
+        <v>1.033858111175156</v>
       </c>
       <c r="J22">
-        <v>0.9991767203201237</v>
+        <v>0.9991973983688897</v>
       </c>
       <c r="K22">
-        <v>1.009439890507817</v>
+        <v>1.009457041630742</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.000037288268062</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.000055365336933</v>
+      </c>
+      <c r="N22">
+        <v>1.001068087995257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9698017416578961</v>
+        <v>0.9698216119037389</v>
       </c>
       <c r="D23">
-        <v>0.9958971820991125</v>
+        <v>0.9959132361954924</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.986887890691417</v>
+        <v>0.9869047870377615</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034923406403319</v>
+        <v>1.034932751613578</v>
       </c>
       <c r="J23">
-        <v>1.001232806802257</v>
+        <v>1.001251748890833</v>
       </c>
       <c r="K23">
-        <v>1.011235649749966</v>
+        <v>1.01125138982467</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.002404702534318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.002421260397924</v>
+      </c>
+      <c r="N23">
+        <v>1.00248382810429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9807775690238401</v>
+        <v>0.980790571440928</v>
       </c>
       <c r="D24">
-        <v>1.004092223011348</v>
+        <v>1.004102898925874</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9973276809938169</v>
+        <v>0.9973388096387056</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03898216929241</v>
+        <v>1.038988383479194</v>
       </c>
       <c r="J24">
-        <v>1.009036191233399</v>
+        <v>1.009048664871059</v>
       </c>
       <c r="K24">
-        <v>1.018047853731978</v>
+        <v>1.01805834414085</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.011401888636184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.011412820491755</v>
+      </c>
+      <c r="N24">
+        <v>1.007855314725005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9927786808305501</v>
+        <v>0.9927844868860115</v>
       </c>
       <c r="D25">
-        <v>1.013075359996359</v>
+        <v>1.013080366923764</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.008780769579392</v>
+        <v>1.008785865655375</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043363082872233</v>
+        <v>1.043365985328717</v>
       </c>
       <c r="J25">
-        <v>1.017551539318261</v>
+        <v>1.017557145989929</v>
       </c>
       <c r="K25">
-        <v>1.025474032937506</v>
+        <v>1.025478964672412</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.021244287670965</v>
+        <v>1.021249306382986</v>
+      </c>
+      <c r="N25">
+        <v>1.013713115135926</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001836633840026</v>
+        <v>1.001696302275574</v>
       </c>
       <c r="D2">
-        <v>1.019869073084971</v>
+        <v>1.018825055944046</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.016081644762193</v>
       </c>
       <c r="F2">
-        <v>1.017452125711728</v>
+        <v>1.022616504028135</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046621621621679</v>
+        <v>1.042725644065057</v>
       </c>
       <c r="J2">
-        <v>1.023962549933586</v>
+        <v>1.023826395336972</v>
       </c>
       <c r="K2">
-        <v>1.031058369782939</v>
+        <v>1.030028212610499</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.027321392418406</v>
       </c>
       <c r="M2">
-        <v>1.028673563235118</v>
+        <v>1.03376949646476</v>
       </c>
       <c r="N2">
-        <v>1.018119498051986</v>
+        <v>1.025280346252882</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008144437427431</v>
+        <v>1.007895779306363</v>
       </c>
       <c r="D3">
-        <v>1.024605150089214</v>
+        <v>1.023462530442257</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.021667420719999</v>
       </c>
       <c r="F3">
-        <v>1.023505049357334</v>
+        <v>1.028542107327556</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048861093302041</v>
+        <v>1.044550508877414</v>
       </c>
       <c r="J3">
-        <v>1.028415512654169</v>
+        <v>1.028173487495791</v>
       </c>
       <c r="K3">
-        <v>1.034932593042876</v>
+        <v>1.033803753557137</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.032030370446217</v>
       </c>
       <c r="M3">
-        <v>1.033845759003538</v>
+        <v>1.03882236076429</v>
       </c>
       <c r="N3">
-        <v>1.021180546131564</v>
+        <v>1.029633611781182</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012113138921378</v>
+        <v>1.011801137062227</v>
       </c>
       <c r="D4">
-        <v>1.027586888324279</v>
+        <v>1.026386273899832</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.025199931703472</v>
       </c>
       <c r="F4">
-        <v>1.027319439473527</v>
+        <v>1.032287060746517</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050256228556338</v>
+        <v>1.045689100347508</v>
       </c>
       <c r="J4">
-        <v>1.031211984057363</v>
+        <v>1.030907711196527</v>
       </c>
       <c r="K4">
-        <v>1.037363385631139</v>
+        <v>1.036176337790401</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.035003439385011</v>
       </c>
       <c r="M4">
-        <v>1.037098955489755</v>
+        <v>1.042010821161954</v>
       </c>
       <c r="N4">
-        <v>1.023101808385469</v>
+        <v>1.032371718393193</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013755877946962</v>
+        <v>1.013418747553019</v>
       </c>
       <c r="D5">
-        <v>1.028821475759653</v>
+        <v>1.027597777583992</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.026666322991074</v>
       </c>
       <c r="F5">
-        <v>1.028899699268597</v>
+        <v>1.033841062869119</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05083031899326</v>
+        <v>1.046158018584467</v>
       </c>
       <c r="J5">
-        <v>1.032368208373613</v>
+        <v>1.032039167129897</v>
       </c>
       <c r="K5">
-        <v>1.038367861643218</v>
+        <v>1.037157606904763</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.036236411585043</v>
       </c>
       <c r="M5">
-        <v>1.038445227131369</v>
+        <v>1.043332712572821</v>
       </c>
       <c r="N5">
-        <v>1.023895901904837</v>
+        <v>1.033504781123769</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014030230344193</v>
+        <v>1.013688965677673</v>
       </c>
       <c r="D6">
-        <v>1.029027682797417</v>
+        <v>1.027800182301582</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.026911467000063</v>
       </c>
       <c r="F6">
-        <v>1.029163697415503</v>
+        <v>1.034100819742135</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050925996366752</v>
+        <v>1.046236190578901</v>
       </c>
       <c r="J6">
-        <v>1.032561230448125</v>
+        <v>1.032228109964486</v>
       </c>
       <c r="K6">
-        <v>1.038535517343435</v>
+        <v>1.037321437796797</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.036442463910647</v>
       </c>
       <c r="M6">
-        <v>1.038670047256293</v>
+        <v>1.043553601231262</v>
       </c>
       <c r="N6">
-        <v>1.024028453222001</v>
+        <v>1.033693992278855</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012135188604343</v>
+        <v>1.011822845220478</v>
       </c>
       <c r="D7">
-        <v>1.027603458211747</v>
+        <v>1.026402530359615</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.025219597907195</v>
       </c>
       <c r="F7">
-        <v>1.027340645087588</v>
+        <v>1.032307904184661</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050263947775683</v>
+        <v>1.045695403889348</v>
       </c>
       <c r="J7">
-        <v>1.031227508703378</v>
+        <v>1.03092289950435</v>
       </c>
       <c r="K7">
-        <v>1.037376874974799</v>
+        <v>1.036189512185317</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.035019979830913</v>
       </c>
       <c r="M7">
-        <v>1.037117027112217</v>
+        <v>1.042028556066081</v>
       </c>
       <c r="N7">
-        <v>1.023112471767269</v>
+        <v>1.032386928270156</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003992581048108</v>
+        <v>1.003814168868253</v>
       </c>
       <c r="D8">
-        <v>1.021487358865377</v>
+        <v>1.020408756813954</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.017986907842422</v>
       </c>
       <c r="F8">
-        <v>1.019519644641595</v>
+        <v>1.024638207749864</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047389940723678</v>
+        <v>1.043351332975681</v>
       </c>
       <c r="J8">
-        <v>1.025485597557726</v>
+        <v>1.025312305780158</v>
       </c>
       <c r="K8">
-        <v>1.032383928609562</v>
+        <v>1.03131919656133</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.028928624740953</v>
       </c>
       <c r="M8">
-        <v>1.030441545300024</v>
+        <v>1.035494468908755</v>
       </c>
       <c r="N8">
-        <v>1.019166692256606</v>
+        <v>1.026768366859331</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9887150319275294</v>
+        <v>0.9888302569772628</v>
       </c>
       <c r="D9">
-        <v>1.010031967197095</v>
+        <v>1.009218163589489</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>1.004570205726973</v>
       </c>
       <c r="F9">
-        <v>1.004897458464701</v>
+        <v>1.010390303669013</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041888197227526</v>
+        <v>1.038879781350452</v>
       </c>
       <c r="J9">
-        <v>1.014672683244048</v>
+        <v>1.014783708544947</v>
       </c>
       <c r="K9">
-        <v>1.022964352860518</v>
+        <v>1.022163432220524</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>1.017589567168509</v>
       </c>
       <c r="M9">
-        <v>1.017911574427513</v>
+        <v>1.023317025090472</v>
       </c>
       <c r="N9">
-        <v>1.011727794948319</v>
+        <v>1.016224817808399</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9778048046556422</v>
+        <v>0.9781642591381466</v>
       </c>
       <c r="D10">
-        <v>1.001871574719389</v>
+        <v>1.001275152336963</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.9951053973364269</v>
       </c>
       <c r="F10">
-        <v>0.9944953789961203</v>
+        <v>1.000323906633371</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037888903927849</v>
+        <v>1.035642325385878</v>
       </c>
       <c r="J10">
-        <v>1.00692756865114</v>
+        <v>1.007271830673873</v>
       </c>
       <c r="K10">
-        <v>1.016207119329179</v>
+        <v>1.01562142161928</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>1.009563591297149</v>
       </c>
       <c r="M10">
-        <v>1.008964737458502</v>
+        <v>1.014687315307585</v>
       </c>
       <c r="N10">
-        <v>1.00639433423286</v>
+        <v>1.008702272209124</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9728827824815284</v>
+        <v>0.9733621721834367</v>
       </c>
       <c r="D11">
-        <v>0.998196611005293</v>
+        <v>0.9977061169734994</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9908662788334612</v>
       </c>
       <c r="F11">
-        <v>0.9898133482712941</v>
+        <v>0.995811410490817</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036068977208128</v>
+        <v>1.034172766618756</v>
       </c>
       <c r="J11">
-        <v>1.003428861439632</v>
+        <v>1.003886694563068</v>
       </c>
       <c r="K11">
-        <v>1.013152616924516</v>
+        <v>1.012671422610562</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.005962524123701</v>
       </c>
       <c r="M11">
-        <v>1.004929961182968</v>
+        <v>1.010812752140336</v>
       </c>
       <c r="N11">
-        <v>1.003983980441241</v>
+        <v>1.005312328816761</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9710223091723794</v>
+        <v>0.9715486548502975</v>
       </c>
       <c r="D12">
-        <v>0.9968086477788337</v>
+        <v>0.9963594880399651</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.989268873887127</v>
       </c>
       <c r="F12">
-        <v>0.9880453197177133</v>
+        <v>0.9941103675228787</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035378799198819</v>
+        <v>1.033616073415422</v>
       </c>
       <c r="J12">
-        <v>1.0021057840914</v>
+        <v>1.002607917712846</v>
       </c>
       <c r="K12">
-        <v>1.011997245531759</v>
+        <v>1.01155676845465</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>1.004604594167154</v>
       </c>
       <c r="M12">
-        <v>1.003405193222171</v>
+        <v>1.009351280203233</v>
       </c>
       <c r="N12">
-        <v>1.003072330172091</v>
+        <v>1.004031735956734</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9714228880182124</v>
+        <v>0.9719390476364783</v>
       </c>
       <c r="D13">
-        <v>0.9971074364742069</v>
+        <v>0.9966493166161808</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9896125832010253</v>
       </c>
       <c r="F13">
-        <v>0.9884259141649498</v>
+        <v>0.9944764049996144</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035527502206179</v>
+        <v>1.033735987596187</v>
       </c>
       <c r="J13">
-        <v>1.002390681824748</v>
+        <v>1.002883213113872</v>
       </c>
       <c r="K13">
-        <v>1.012246043079971</v>
+        <v>1.011796742470118</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>1.004896819596543</v>
       </c>
       <c r="M13">
-        <v>1.003733474218289</v>
+        <v>1.009665806538874</v>
       </c>
       <c r="N13">
-        <v>1.003268641862495</v>
+        <v>1.004307422308806</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9727296678030183</v>
+        <v>0.9732128880444302</v>
       </c>
       <c r="D14">
-        <v>0.9980823593455684</v>
+        <v>0.9975952401055197</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9907347122842312</v>
       </c>
       <c r="F14">
-        <v>0.9896678058685972</v>
+        <v>0.9956713208693179</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036012221782382</v>
+        <v>1.034126975249238</v>
       </c>
       <c r="J14">
-        <v>1.003319985482575</v>
+        <v>1.003781435919813</v>
       </c>
       <c r="K14">
-        <v>1.013057546867412</v>
+        <v>1.012579678220148</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.005850700846188</v>
       </c>
       <c r="M14">
-        <v>1.004804467150406</v>
+        <v>1.010692410759009</v>
       </c>
       <c r="N14">
-        <v>1.003908963686993</v>
+        <v>1.005206920694158</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9735304696564352</v>
+        <v>0.9739937228071276</v>
       </c>
       <c r="D15">
-        <v>0.9986799516690917</v>
+        <v>0.9981752353561431</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9914230184373893</v>
       </c>
       <c r="F15">
-        <v>0.9904290752089142</v>
+        <v>0.9964041909550073</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03630896562274</v>
+        <v>1.034366419175528</v>
       </c>
       <c r="J15">
-        <v>1.003889391375593</v>
+        <v>1.004331979499055</v>
       </c>
       <c r="K15">
-        <v>1.013554738859549</v>
+        <v>1.013059526810498</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.006435678677247</v>
       </c>
       <c r="M15">
-        <v>1.005460825188664</v>
+        <v>1.011321932342809</v>
       </c>
       <c r="N15">
-        <v>1.0043012848493</v>
+        <v>1.005758246108432</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.978127088639088</v>
+        <v>0.9784789047576036</v>
       </c>
       <c r="D16">
-        <v>1.002112351560137</v>
+        <v>1.001509165278646</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9953836298448898</v>
       </c>
       <c r="F16">
-        <v>0.9948021809992984</v>
+        <v>1.000619997787244</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038007751494035</v>
+        <v>1.035738373646316</v>
       </c>
       <c r="J16">
-        <v>1.007156568926399</v>
+        <v>1.007493577064682</v>
       </c>
       <c r="K16">
-        <v>1.016407005358647</v>
+        <v>1.015814626841277</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>1.009799813051916</v>
       </c>
       <c r="M16">
-        <v>1.009228966374031</v>
+        <v>1.014941422140185</v>
       </c>
       <c r="N16">
-        <v>1.00655207774596</v>
+        <v>1.008924333505242</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9809557894958814</v>
+        <v>0.9812416821623806</v>
       </c>
       <c r="D17">
-        <v>1.004226413176145</v>
+        <v>1.003564760206257</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9978292055642103</v>
       </c>
       <c r="F17">
-        <v>0.9974962232538814</v>
+        <v>1.003222095244414</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039049118668291</v>
+        <v>1.036580389553794</v>
       </c>
       <c r="J17">
-        <v>1.009166005568122</v>
+        <v>1.00944030211293</v>
       </c>
       <c r="K17">
-        <v>1.018160741659896</v>
+        <v>1.017510573631571</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>1.011875404029246</v>
       </c>
       <c r="M17">
-        <v>1.011548295628969</v>
+        <v>1.017173864340102</v>
       </c>
       <c r="N17">
-        <v>1.007936130201895</v>
+        <v>1.010873823126351</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9825868187270737</v>
+        <v>0.9828356068578741</v>
       </c>
       <c r="D18">
-        <v>1.005445982494697</v>
+        <v>1.004751349331192</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9992422042398268</v>
       </c>
       <c r="F18">
-        <v>0.9990506118418596</v>
+        <v>1.004725158642517</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039648087508315</v>
+        <v>1.037065037330899</v>
       </c>
       <c r="J18">
-        <v>1.010324208951024</v>
+        <v>1.010563123510073</v>
       </c>
       <c r="K18">
-        <v>1.019171368696618</v>
+        <v>1.018488569220569</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.013074031058603</v>
       </c>
       <c r="M18">
-        <v>1.012885753109414</v>
+        <v>1.018462825126772</v>
       </c>
       <c r="N18">
-        <v>1.008733772207332</v>
+        <v>1.011998239058667</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9831398222947187</v>
+        <v>0.983376179635592</v>
       </c>
       <c r="D19">
-        <v>1.005859577318337</v>
+        <v>1.00515388315301</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9997217640529573</v>
       </c>
       <c r="F19">
-        <v>0.9995777972342728</v>
+        <v>1.005235223768101</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039850914742503</v>
+        <v>1.037229208513487</v>
       </c>
       <c r="J19">
-        <v>1.010716823260615</v>
+        <v>1.010943870159037</v>
       </c>
       <c r="K19">
-        <v>1.019513922693953</v>
+        <v>1.018820173674096</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.01348073271311</v>
       </c>
       <c r="M19">
-        <v>1.013339239845297</v>
+        <v>1.018900136348998</v>
       </c>
       <c r="N19">
-        <v>1.009004143858174</v>
+        <v>1.012379526411545</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9806542691333789</v>
+        <v>0.9809470935335742</v>
       </c>
       <c r="D20">
-        <v>1.004001004989433</v>
+        <v>1.003345507396456</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9975682225307548</v>
       </c>
       <c r="F20">
-        <v>0.9972089515431606</v>
+        <v>1.002944447397883</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038938269479247</v>
+        <v>1.036490724626982</v>
       </c>
       <c r="J20">
-        <v>1.008951858139859</v>
+        <v>1.009232757755067</v>
       </c>
       <c r="K20">
-        <v>1.01797386450399</v>
+        <v>1.017329784074504</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.011653967014956</v>
       </c>
       <c r="M20">
-        <v>1.011301056358203</v>
+        <v>1.016935719089131</v>
       </c>
       <c r="N20">
-        <v>1.007788640929792</v>
+        <v>1.010665984031695</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9723457644982086</v>
+        <v>0.9728386156811454</v>
       </c>
       <c r="D21">
-        <v>0.997795915819215</v>
+        <v>0.9973172794059242</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9904049169837978</v>
       </c>
       <c r="F21">
-        <v>0.9893029167252182</v>
+        <v>0.9953201508169653</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035869883224847</v>
+        <v>1.03401214383864</v>
       </c>
       <c r="J21">
-        <v>1.003046992219418</v>
+        <v>1.003517534815101</v>
       </c>
       <c r="K21">
-        <v>1.012819165912737</v>
+        <v>1.012349655620723</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>1.005570380186448</v>
       </c>
       <c r="M21">
-        <v>1.004489822687605</v>
+        <v>1.010390730115883</v>
       </c>
       <c r="N21">
-        <v>1.003720865959838</v>
+        <v>1.004942644819609</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9669340369663656</v>
+        <v>0.9675667496082663</v>
       </c>
       <c r="D22">
-        <v>0.9937609667193739</v>
+        <v>0.9934051632637104</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9857681562469216</v>
       </c>
       <c r="F22">
-        <v>0.9841635184634414</v>
+        <v>0.9903813433582123</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033858111175156</v>
+        <v>1.032390702233657</v>
       </c>
       <c r="J22">
-        <v>0.9991973983688897</v>
+        <v>0.9997995537593327</v>
       </c>
       <c r="K22">
-        <v>1.009457041630742</v>
+        <v>1.009108407085104</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>1.001626920948551</v>
       </c>
       <c r="M22">
-        <v>1.000055365336933</v>
+        <v>1.006145786628093</v>
       </c>
       <c r="N22">
-        <v>1.001068087995257</v>
+        <v>1.001219383804283</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9698216119037389</v>
+        <v>0.9703787404018132</v>
       </c>
       <c r="D23">
-        <v>0.9959132361954924</v>
+        <v>0.9954911329584498</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9882393872655498</v>
       </c>
       <c r="F23">
-        <v>0.9869047870377615</v>
+        <v>0.9930139092206642</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034932751613578</v>
+        <v>1.033256475405769</v>
       </c>
       <c r="J23">
-        <v>1.001251748890833</v>
+        <v>1.001782875655508</v>
       </c>
       <c r="K23">
-        <v>1.01125138982467</v>
+        <v>1.010837547439416</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>1.003729172802366</v>
       </c>
       <c r="M23">
-        <v>1.002421260397924</v>
+        <v>1.008408990567661</v>
       </c>
       <c r="N23">
-        <v>1.00248382810429</v>
+        <v>1.003205522245041</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.980790571440928</v>
+        <v>0.9810802595453985</v>
       </c>
       <c r="D24">
-        <v>1.004102898925874</v>
+        <v>1.003444616530375</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.99768619101611</v>
       </c>
       <c r="F24">
-        <v>0.9973388096387056</v>
+        <v>1.003069949789739</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038988383479194</v>
+        <v>1.036531260342167</v>
       </c>
       <c r="J24">
-        <v>1.009048664871059</v>
+        <v>1.009326577161846</v>
       </c>
       <c r="K24">
-        <v>1.01805834414085</v>
+        <v>1.017411509676683</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>1.011754061940322</v>
       </c>
       <c r="M24">
-        <v>1.011412820491755</v>
+        <v>1.017043367306133</v>
       </c>
       <c r="N24">
-        <v>1.007855314725005</v>
+        <v>1.010759936672793</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9927844868860115</v>
+        <v>0.9928160563964173</v>
       </c>
       <c r="D25">
-        <v>1.013080366923764</v>
+        <v>1.012191539971019</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>1.008125045305777</v>
       </c>
       <c r="F25">
-        <v>1.008785865655375</v>
+        <v>1.014167888825363</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043365985328717</v>
+        <v>1.040078835596387</v>
       </c>
       <c r="J25">
-        <v>1.017557145989929</v>
+        <v>1.017587631439396</v>
       </c>
       <c r="K25">
-        <v>1.025478964672412</v>
+        <v>1.024603500689176</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.020598526320761</v>
       </c>
       <c r="M25">
-        <v>1.021249306382986</v>
+        <v>1.026550176891669</v>
       </c>
       <c r="N25">
-        <v>1.013713115135926</v>
+        <v>1.019032722594973</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001696302275574</v>
+        <v>0.9938950451627087</v>
       </c>
       <c r="D2">
-        <v>1.018825055944046</v>
+        <v>1.015864084152104</v>
       </c>
       <c r="E2">
-        <v>1.016081644762193</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.022616504028135</v>
+        <v>1.015455551489159</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042725644065057</v>
+        <v>1.041295787920206</v>
       </c>
       <c r="J2">
-        <v>1.023826395336972</v>
+        <v>1.016259900365181</v>
       </c>
       <c r="K2">
-        <v>1.030028212610499</v>
+        <v>1.027106744206828</v>
       </c>
       <c r="L2">
-        <v>1.027321392418406</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.03376949646476</v>
+        <v>1.026703684646489</v>
       </c>
       <c r="N2">
-        <v>1.025280346252882</v>
+        <v>1.009404537152682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007895779306363</v>
+        <v>0.9978318289953827</v>
       </c>
       <c r="D3">
-        <v>1.023462530442257</v>
+        <v>1.018817588407481</v>
       </c>
       <c r="E3">
-        <v>1.021667420719999</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.028542107327556</v>
+        <v>1.019110116987435</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044550508877414</v>
+        <v>1.042075216246246</v>
       </c>
       <c r="J3">
-        <v>1.028173487495791</v>
+        <v>1.018381775557514</v>
       </c>
       <c r="K3">
-        <v>1.033803753557137</v>
+        <v>1.029215225764369</v>
       </c>
       <c r="L3">
-        <v>1.032030370446217</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.03882236076429</v>
+        <v>1.029504182634315</v>
       </c>
       <c r="N3">
-        <v>1.029633611781182</v>
+        <v>1.010115634618725</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011801137062227</v>
+        <v>1.000331300935248</v>
       </c>
       <c r="D4">
-        <v>1.026386273899832</v>
+        <v>1.020694643569417</v>
       </c>
       <c r="E4">
-        <v>1.025199931703472</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.032287060746517</v>
+        <v>1.021435168271613</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045689100347508</v>
+        <v>1.042559343658993</v>
       </c>
       <c r="J4">
-        <v>1.030907711196527</v>
+        <v>1.019726535796129</v>
       </c>
       <c r="K4">
-        <v>1.036176337790401</v>
+        <v>1.030549557168602</v>
       </c>
       <c r="L4">
-        <v>1.035003439385011</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.042010821161954</v>
+        <v>1.031281593954575</v>
       </c>
       <c r="N4">
-        <v>1.032371718393193</v>
+        <v>1.010566170135608</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013418747553019</v>
+        <v>1.001370973428326</v>
       </c>
       <c r="D5">
-        <v>1.027597777583992</v>
+        <v>1.02147581689422</v>
       </c>
       <c r="E5">
-        <v>1.026666322991074</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.033841062869119</v>
+        <v>1.022403394237604</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046158018584467</v>
+        <v>1.042758104299591</v>
       </c>
       <c r="J5">
-        <v>1.032039167129897</v>
+        <v>1.020285288595276</v>
       </c>
       <c r="K5">
-        <v>1.037157606904763</v>
+        <v>1.031103496612783</v>
       </c>
       <c r="L5">
-        <v>1.036236411585043</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.043332712572821</v>
+        <v>1.03202072925092</v>
       </c>
       <c r="N5">
-        <v>1.033504781123769</v>
+        <v>1.010753336170935</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013688965677673</v>
+        <v>1.001544897940937</v>
       </c>
       <c r="D6">
-        <v>1.027800182301582</v>
+        <v>1.021606519721797</v>
       </c>
       <c r="E6">
-        <v>1.026911467000063</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.034100819742135</v>
+        <v>1.022565430509127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046236190578901</v>
+        <v>1.042791199630575</v>
       </c>
       <c r="J6">
-        <v>1.032228109964486</v>
+        <v>1.020378724483509</v>
       </c>
       <c r="K6">
-        <v>1.037321437796797</v>
+        <v>1.031196098953532</v>
       </c>
       <c r="L6">
-        <v>1.036442463910647</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.043553601231262</v>
+        <v>1.032144365185946</v>
       </c>
       <c r="N6">
-        <v>1.033693992278855</v>
+        <v>1.010784632487979</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011822845220478</v>
+        <v>1.000345236261771</v>
       </c>
       <c r="D7">
-        <v>1.026402530359615</v>
+        <v>1.0207051125702</v>
       </c>
       <c r="E7">
-        <v>1.025219597907195</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.032307904184661</v>
+        <v>1.021448141644136</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045695403889348</v>
+        <v>1.042562018142881</v>
       </c>
       <c r="J7">
-        <v>1.03092289950435</v>
+        <v>1.019734027523684</v>
       </c>
       <c r="K7">
-        <v>1.036189512185317</v>
+        <v>1.030556986274974</v>
       </c>
       <c r="L7">
-        <v>1.035019979830913</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.042028556066081</v>
+        <v>1.031291501815317</v>
       </c>
       <c r="N7">
-        <v>1.032386928270156</v>
+        <v>1.010568679781222</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003814168868253</v>
+        <v>0.9952356373668272</v>
       </c>
       <c r="D8">
-        <v>1.020408756813954</v>
+        <v>1.016869418336147</v>
       </c>
       <c r="E8">
-        <v>1.017986907842422</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.024638207749864</v>
+        <v>1.016699019655126</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043351332975681</v>
+        <v>1.04156343003914</v>
       </c>
       <c r="J8">
-        <v>1.025312305780158</v>
+        <v>1.016982952161553</v>
       </c>
       <c r="K8">
-        <v>1.03131919656133</v>
+        <v>1.027825630018922</v>
       </c>
       <c r="L8">
-        <v>1.028928624740953</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.035494468908755</v>
+        <v>1.027657445058044</v>
       </c>
       <c r="N8">
-        <v>1.026768366859331</v>
+        <v>1.00964687728494</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9888302569772628</v>
+        <v>0.9858481013349391</v>
       </c>
       <c r="D9">
-        <v>1.009218163589489</v>
+        <v>1.009839530338464</v>
       </c>
       <c r="E9">
-        <v>1.004570205726973</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.010390303669013</v>
+        <v>1.008013337254418</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038879781350452</v>
+        <v>1.039645507794992</v>
       </c>
       <c r="J9">
-        <v>1.014783708544947</v>
+        <v>1.011910691462404</v>
       </c>
       <c r="K9">
-        <v>1.022163432220524</v>
+        <v>1.022774959985109</v>
       </c>
       <c r="L9">
-        <v>1.017589567168509</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.023317025090472</v>
+        <v>1.020977727897046</v>
       </c>
       <c r="N9">
-        <v>1.016224817808399</v>
+        <v>1.007946373395965</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9781642591381466</v>
+        <v>0.9793066370561077</v>
       </c>
       <c r="D10">
-        <v>1.001275152336963</v>
+        <v>1.004956005975374</v>
       </c>
       <c r="E10">
-        <v>0.9951053973364269</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.000323906633371</v>
+        <v>1.001990403324722</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035642325385878</v>
+        <v>1.038255342631281</v>
       </c>
       <c r="J10">
-        <v>1.007271830673873</v>
+        <v>1.00836603104833</v>
       </c>
       <c r="K10">
-        <v>1.01562142161928</v>
+        <v>1.019236351064403</v>
       </c>
       <c r="L10">
-        <v>1.009563591297149</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.014687315307585</v>
+        <v>1.016323813179125</v>
       </c>
       <c r="N10">
-        <v>1.008702272209124</v>
+        <v>1.006757496071665</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9733621721834367</v>
+        <v>0.9764009537863531</v>
       </c>
       <c r="D11">
-        <v>0.9977061169734994</v>
+        <v>1.002791149612117</v>
       </c>
       <c r="E11">
-        <v>0.9908662788334612</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.995811410490817</v>
+        <v>0.999322673457997</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034172766618756</v>
+        <v>1.037625694312301</v>
       </c>
       <c r="J11">
-        <v>1.003886694563068</v>
+        <v>1.006789536749733</v>
       </c>
       <c r="K11">
-        <v>1.012671422610562</v>
+        <v>1.017660620202913</v>
       </c>
       <c r="L11">
-        <v>1.005962524123701</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.010812752140336</v>
+        <v>1.014257374479482</v>
       </c>
       <c r="N11">
-        <v>1.005312328816761</v>
+        <v>1.006228647951621</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9715486548502975</v>
+        <v>0.9753101103029197</v>
       </c>
       <c r="D12">
-        <v>0.9963594880399651</v>
+        <v>1.001979154401243</v>
       </c>
       <c r="E12">
-        <v>0.989268873887127</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9941103675228787</v>
+        <v>0.9983223643878081</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033616073415422</v>
+        <v>1.037387540826521</v>
       </c>
       <c r="J12">
-        <v>1.002607917712846</v>
+        <v>1.006197435680677</v>
       </c>
       <c r="K12">
-        <v>1.01155676845465</v>
+        <v>1.017068534911996</v>
       </c>
       <c r="L12">
-        <v>1.004604594167154</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.009351280203233</v>
+        <v>1.013481775981261</v>
       </c>
       <c r="N12">
-        <v>1.004031735956734</v>
+        <v>1.006030011205094</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9719390476364783</v>
+        <v>0.9755446314694546</v>
       </c>
       <c r="D13">
-        <v>0.9966493166161808</v>
+        <v>1.002153691670361</v>
       </c>
       <c r="E13">
-        <v>0.9896125832010253</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9944764049996144</v>
+        <v>0.9985373662115316</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033735987596187</v>
+        <v>1.037438820856581</v>
       </c>
       <c r="J13">
-        <v>1.002883213113872</v>
+        <v>1.006324742904375</v>
       </c>
       <c r="K13">
-        <v>1.011796742470118</v>
+        <v>1.017195850680702</v>
       </c>
       <c r="L13">
-        <v>1.004896819596543</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.009665806538874</v>
+        <v>1.013648513425838</v>
       </c>
       <c r="N13">
-        <v>1.004307422308806</v>
+        <v>1.006072720430151</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9732128880444302</v>
+        <v>0.9763110230934031</v>
       </c>
       <c r="D14">
-        <v>0.9975952401055197</v>
+        <v>1.002724192323161</v>
       </c>
       <c r="E14">
-        <v>0.9907347122842312</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9956713208693179</v>
+        <v>0.99924018176062</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034126975249238</v>
+        <v>1.037606096337371</v>
       </c>
       <c r="J14">
-        <v>1.003781435919813</v>
+        <v>1.006740728110146</v>
       </c>
       <c r="K14">
-        <v>1.012579678220148</v>
+        <v>1.017611818262838</v>
       </c>
       <c r="L14">
-        <v>1.005850700846188</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.010692410759009</v>
+        <v>1.014193429073028</v>
       </c>
       <c r="N14">
-        <v>1.005206920694158</v>
+        <v>1.006212273958228</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9739937228071276</v>
+        <v>0.9767816756962785</v>
       </c>
       <c r="D15">
-        <v>0.9981752353561431</v>
+        <v>1.003074643697094</v>
       </c>
       <c r="E15">
-        <v>0.9914230184373893</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>0.9964041909550073</v>
+        <v>0.9996719517405482</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034366419175528</v>
+        <v>1.037708590435047</v>
       </c>
       <c r="J15">
-        <v>1.004331979499055</v>
+        <v>1.006996158013513</v>
       </c>
       <c r="K15">
-        <v>1.013059526810498</v>
+        <v>1.017867202170937</v>
       </c>
       <c r="L15">
-        <v>1.006435678677247</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>1.011321932342809</v>
+        <v>1.014528095196392</v>
       </c>
       <c r="N15">
-        <v>1.005758246108432</v>
+        <v>1.006297963405094</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9784789047576036</v>
+        <v>0.9794978897360586</v>
       </c>
       <c r="D16">
-        <v>1.001509165278646</v>
+        <v>1.005098594551996</v>
       </c>
       <c r="E16">
-        <v>0.9953836298448898</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>1.000619997787244</v>
+        <v>1.002166157643859</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035738373646316</v>
+        <v>1.038296537287642</v>
       </c>
       <c r="J16">
-        <v>1.007493577064682</v>
+        <v>1.008469758283415</v>
       </c>
       <c r="K16">
-        <v>1.015814626841277</v>
+        <v>1.019339989445308</v>
       </c>
       <c r="L16">
-        <v>1.009799813051916</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>1.014941422140185</v>
+        <v>1.016459848177226</v>
       </c>
       <c r="N16">
-        <v>1.008924333505242</v>
+        <v>1.006792290505081</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9812416821623806</v>
+        <v>0.9811817287481983</v>
       </c>
       <c r="D17">
-        <v>1.003564760206257</v>
+        <v>1.006354489496319</v>
       </c>
       <c r="E17">
-        <v>0.9978292055642103</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.003222095244414</v>
+        <v>1.003714420784428</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036580389553794</v>
+        <v>1.03865784789034</v>
       </c>
       <c r="J17">
-        <v>1.00944030211293</v>
+        <v>1.009382779680782</v>
       </c>
       <c r="K17">
-        <v>1.017510573631571</v>
+        <v>1.0202520113608</v>
       </c>
       <c r="L17">
-        <v>1.011875404029246</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.017173864340102</v>
+        <v>1.017657634693274</v>
       </c>
       <c r="N17">
-        <v>1.010873823126351</v>
+        <v>1.007098545627667</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9828356068578741</v>
+        <v>0.9821568609202492</v>
       </c>
       <c r="D18">
-        <v>1.004751349331192</v>
+        <v>1.007082205198681</v>
       </c>
       <c r="E18">
-        <v>0.9992422042398268</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.004725158642517</v>
+        <v>1.004611759965871</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037065037330899</v>
+        <v>1.038865929813225</v>
       </c>
       <c r="J18">
-        <v>1.010563123510073</v>
+        <v>1.009911331436864</v>
       </c>
       <c r="K18">
-        <v>1.018488569220569</v>
+        <v>1.020779800174356</v>
       </c>
       <c r="L18">
-        <v>1.013074031058603</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.018462825126772</v>
+        <v>1.01835136043352</v>
       </c>
       <c r="N18">
-        <v>1.011998239058667</v>
+        <v>1.007275828983832</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.983376179635592</v>
+        <v>0.982488180717487</v>
       </c>
       <c r="D19">
-        <v>1.00515388315301</v>
+        <v>1.007329528203855</v>
       </c>
       <c r="E19">
-        <v>0.9997217640529573</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.005235223768101</v>
+        <v>1.004916768696048</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037229208513487</v>
+        <v>1.038936431748664</v>
       </c>
       <c r="J19">
-        <v>1.010943870159037</v>
+        <v>1.010090883581759</v>
       </c>
       <c r="K19">
-        <v>1.018820173674096</v>
+        <v>1.0209590613249</v>
       </c>
       <c r="L19">
-        <v>1.01348073271311</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>1.018900136348998</v>
+        <v>1.018587077666842</v>
       </c>
       <c r="N19">
-        <v>1.012379526411545</v>
+        <v>1.00733605159208</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9809470935335742</v>
+        <v>0.9810017989943338</v>
       </c>
       <c r="D20">
-        <v>1.003345507396456</v>
+        <v>1.00622024534632</v>
       </c>
       <c r="E20">
-        <v>0.9975682225307548</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.002944447397883</v>
+        <v>1.003548903094456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036490724626982</v>
+        <v>1.038619359070957</v>
       </c>
       <c r="J20">
-        <v>1.009232757755067</v>
+        <v>1.009285236547424</v>
       </c>
       <c r="K20">
-        <v>1.017329784074504</v>
+        <v>1.020154593998612</v>
       </c>
       <c r="L20">
-        <v>1.011653967014956</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.016935719089131</v>
+        <v>1.017529635050912</v>
       </c>
       <c r="N20">
-        <v>1.010665984031695</v>
+        <v>1.007065827609423</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9728386156811454</v>
+        <v>0.9760856630875107</v>
       </c>
       <c r="D21">
-        <v>0.9973172794059242</v>
+        <v>1.002556414051197</v>
       </c>
       <c r="E21">
-        <v>0.9904049169837978</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9953201508169653</v>
+        <v>0.9990334829322739</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03401214383864</v>
+        <v>1.037556956803759</v>
       </c>
       <c r="J21">
-        <v>1.003517534815101</v>
+        <v>1.006618413061736</v>
       </c>
       <c r="K21">
-        <v>1.012349655620723</v>
+        <v>1.017489515702565</v>
       </c>
       <c r="L21">
-        <v>1.005570380186448</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.010390730115883</v>
+        <v>1.014033189440677</v>
       </c>
       <c r="N21">
-        <v>1.004942644819609</v>
+        <v>1.006171240352956</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9675667496082663</v>
+        <v>0.9729276103826987</v>
       </c>
       <c r="D22">
-        <v>0.9934051632637104</v>
+        <v>1.000207105161288</v>
       </c>
       <c r="E22">
-        <v>0.9857681562469216</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9903813433582123</v>
+        <v>0.996139875295358</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032390702233657</v>
+        <v>1.036864192883505</v>
       </c>
       <c r="J22">
-        <v>0.9997995537593327</v>
+        <v>1.004903803674655</v>
       </c>
       <c r="K22">
-        <v>1.009108407085104</v>
+        <v>1.015774460374187</v>
       </c>
       <c r="L22">
-        <v>1.001626920948551</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.006145786628093</v>
+        <v>1.01178819183315</v>
       </c>
       <c r="N22">
-        <v>1.001219383804283</v>
+        <v>1.005596007931106</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9703787404018132</v>
+        <v>0.9746083046032143</v>
       </c>
       <c r="D23">
-        <v>0.9954911329584498</v>
+        <v>1.001456963269683</v>
       </c>
       <c r="E23">
-        <v>0.9882393872655498</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9930139092206642</v>
+        <v>0.9976791511717736</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033256475405769</v>
+        <v>1.037233829413901</v>
       </c>
       <c r="J23">
-        <v>1.001782875655508</v>
+        <v>1.005816433463163</v>
       </c>
       <c r="K23">
-        <v>1.010837547439416</v>
+        <v>1.016687468881653</v>
       </c>
       <c r="L23">
-        <v>1.003729172802366</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.008408990567661</v>
+        <v>1.012982844016108</v>
       </c>
       <c r="N23">
-        <v>1.003205522245041</v>
+        <v>1.005902190488357</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9810802595453985</v>
+        <v>0.9810831231675623</v>
       </c>
       <c r="D24">
-        <v>1.003444616530375</v>
+        <v>1.006280919391983</v>
       </c>
       <c r="E24">
-        <v>0.99768619101611</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.003069949789739</v>
+        <v>1.003623711111681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036531260342167</v>
+        <v>1.038636758737457</v>
       </c>
       <c r="J24">
-        <v>1.009326577161846</v>
+        <v>1.009329324427155</v>
       </c>
       <c r="K24">
-        <v>1.017411509676683</v>
+        <v>1.020198625604748</v>
       </c>
       <c r="L24">
-        <v>1.011754061940322</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.017043367306133</v>
+        <v>1.017587487769184</v>
       </c>
       <c r="N24">
-        <v>1.010759936672793</v>
+        <v>1.007080615639421</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9928160563964173</v>
+        <v>0.9883229762700275</v>
       </c>
       <c r="D25">
-        <v>1.012191539971019</v>
+        <v>1.011690501497576</v>
       </c>
       <c r="E25">
-        <v>1.008125045305777</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.014167888825363</v>
+        <v>1.010298293493225</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040078835596387</v>
+        <v>1.040160603252717</v>
       </c>
       <c r="J25">
-        <v>1.017587631439396</v>
+        <v>1.013249812080622</v>
       </c>
       <c r="K25">
-        <v>1.024603500689176</v>
+        <v>1.024110008200085</v>
       </c>
       <c r="L25">
-        <v>1.020598526320761</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.026550176891669</v>
+        <v>1.02273881785918</v>
       </c>
       <c r="N25">
-        <v>1.019032722594973</v>
+        <v>1.008395418233712</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9938950451627087</v>
+        <v>1.022213354495531</v>
       </c>
       <c r="D2">
-        <v>1.015864084152104</v>
+        <v>1.031946749316871</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.015455551489159</v>
+        <v>1.038518555771472</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041295787920206</v>
+        <v>1.030219767504432</v>
       </c>
       <c r="J2">
-        <v>1.016259900365181</v>
+        <v>1.027400456009924</v>
       </c>
       <c r="K2">
-        <v>1.027106744206828</v>
+        <v>1.034753398002257</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.026703684646489</v>
+        <v>1.04130635982613</v>
       </c>
       <c r="N2">
-        <v>1.009404537152682</v>
+        <v>1.013195684962477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9978318289953827</v>
+        <v>1.023049794871936</v>
       </c>
       <c r="D3">
-        <v>1.018817588407481</v>
+        <v>1.032595775572389</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.019110116987435</v>
+        <v>1.039351025309873</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042075216246246</v>
+        <v>1.030324312505385</v>
       </c>
       <c r="J3">
-        <v>1.018381775557514</v>
+        <v>1.027875436477408</v>
       </c>
       <c r="K3">
-        <v>1.029215225764369</v>
+        <v>1.035211521753906</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.029504182634315</v>
+        <v>1.041948799947362</v>
       </c>
       <c r="N3">
-        <v>1.010115634618725</v>
+        <v>1.013353864146786</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000331300935248</v>
+        <v>1.023591573128362</v>
       </c>
       <c r="D4">
-        <v>1.020694643569417</v>
+        <v>1.033016024765011</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.021435168271613</v>
+        <v>1.039890487155654</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042559343658993</v>
+        <v>1.030390683779427</v>
       </c>
       <c r="J4">
-        <v>1.019726535796129</v>
+        <v>1.028182686297131</v>
       </c>
       <c r="K4">
-        <v>1.030549557168602</v>
+        <v>1.035507559126296</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.031281593954575</v>
+        <v>1.042364652861201</v>
       </c>
       <c r="N4">
-        <v>1.010566170135608</v>
+        <v>1.013456150574995</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001370973428326</v>
+        <v>1.023819465725599</v>
       </c>
       <c r="D5">
-        <v>1.02147581689422</v>
+        <v>1.033192764124587</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.022403394237604</v>
+        <v>1.040117466112167</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042758104299591</v>
+        <v>1.030418280037187</v>
       </c>
       <c r="J5">
-        <v>1.020285288595276</v>
+        <v>1.02831183031977</v>
       </c>
       <c r="K5">
-        <v>1.031103496612783</v>
+        <v>1.035631916262068</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.03202072925092</v>
+        <v>1.042539511973366</v>
       </c>
       <c r="N5">
-        <v>1.010753336170935</v>
+        <v>1.013499135525952</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001544897940937</v>
+        <v>1.023857737416069</v>
       </c>
       <c r="D6">
-        <v>1.021606519721797</v>
+        <v>1.033222443293066</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.022565430509127</v>
+        <v>1.040155587915889</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042791199630575</v>
+        <v>1.030422895593609</v>
       </c>
       <c r="J6">
-        <v>1.020378724483509</v>
+        <v>1.028333512738065</v>
       </c>
       <c r="K6">
-        <v>1.031196098953532</v>
+        <v>1.035652790645647</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.032144365185946</v>
+        <v>1.042568873565596</v>
       </c>
       <c r="N6">
-        <v>1.010784632487979</v>
+        <v>1.013506351921758</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000345236261771</v>
+        <v>1.023594617735389</v>
       </c>
       <c r="D7">
-        <v>1.0207051125702</v>
+        <v>1.033018386105593</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.021448141644136</v>
+        <v>1.039893519318606</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042562018142881</v>
+        <v>1.03039105372607</v>
       </c>
       <c r="J7">
-        <v>1.019734027523684</v>
+        <v>1.028184412020945</v>
       </c>
       <c r="K7">
-        <v>1.030556986274974</v>
+        <v>1.035509221175209</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.031291501815317</v>
+        <v>1.042366989203544</v>
       </c>
       <c r="N7">
-        <v>1.010568679781222</v>
+        <v>1.013456725006476</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9952356373668272</v>
+        <v>1.022495919574101</v>
       </c>
       <c r="D8">
-        <v>1.016869418336147</v>
+        <v>1.032166030505041</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.016699019655126</v>
+        <v>1.038799726272138</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04156343003914</v>
+        <v>1.030255362847524</v>
       </c>
       <c r="J8">
-        <v>1.016982952161553</v>
+        <v>1.027560996672622</v>
       </c>
       <c r="K8">
-        <v>1.027825630018922</v>
+        <v>1.034908304926108</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.027657445058044</v>
+        <v>1.041523443175166</v>
       </c>
       <c r="N8">
-        <v>1.00964687728494</v>
+        <v>1.013249155774469</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9858481013349391</v>
+        <v>1.020564118804924</v>
       </c>
       <c r="D9">
-        <v>1.009839530338464</v>
+        <v>1.030666340480161</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.008013337254418</v>
+        <v>1.036878523570111</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039645507794992</v>
+        <v>1.03000651258276</v>
       </c>
       <c r="J9">
-        <v>1.011910691462404</v>
+        <v>1.026461791031764</v>
       </c>
       <c r="K9">
-        <v>1.022774959985109</v>
+        <v>1.033846416075593</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.020977727897046</v>
+        <v>1.040038238151793</v>
       </c>
       <c r="N9">
-        <v>1.007946373395965</v>
+        <v>1.012882905741685</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9793066370561077</v>
+        <v>1.019279198386136</v>
       </c>
       <c r="D10">
-        <v>1.004956005975374</v>
+        <v>1.029668181514221</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.001990403324722</v>
+        <v>1.035602006003683</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038255342631281</v>
+        <v>1.029834099849149</v>
       </c>
       <c r="J10">
-        <v>1.00836603104833</v>
+        <v>1.025728610852808</v>
       </c>
       <c r="K10">
-        <v>1.019236351064403</v>
+        <v>1.033136556525253</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.016323813179125</v>
+        <v>1.039049027166638</v>
       </c>
       <c r="N10">
-        <v>1.006757496071665</v>
+        <v>1.012638438288295</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9764009537863531</v>
+        <v>1.018723531894759</v>
       </c>
       <c r="D11">
-        <v>1.002791149612117</v>
+        <v>1.029236378211678</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.999322673457997</v>
+        <v>1.035050300293431</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037625694312301</v>
+        <v>1.029757906909498</v>
       </c>
       <c r="J11">
-        <v>1.006789536749733</v>
+        <v>1.025411061766187</v>
       </c>
       <c r="K11">
-        <v>1.017660620202913</v>
+        <v>1.032828738084476</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.014257374479482</v>
+        <v>1.038620928117932</v>
       </c>
       <c r="N11">
-        <v>1.006228647951621</v>
+        <v>1.012532515386208</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9753101103029197</v>
+        <v>1.018517241207839</v>
       </c>
       <c r="D12">
-        <v>1.001979154401243</v>
+        <v>1.029076050101707</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9983223643878081</v>
+        <v>1.034845529661271</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037387540826521</v>
+        <v>1.029729375184482</v>
       </c>
       <c r="J12">
-        <v>1.006197435680677</v>
+        <v>1.025293099518384</v>
       </c>
       <c r="K12">
-        <v>1.017068534911996</v>
+        <v>1.032714335196063</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.013481775981261</v>
+        <v>1.038461950162705</v>
       </c>
       <c r="N12">
-        <v>1.006030011205094</v>
+        <v>1.01249316129972</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9755446314694546</v>
+        <v>1.018561486321827</v>
       </c>
       <c r="D13">
-        <v>1.002153691670361</v>
+        <v>1.029110438151237</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9985373662115316</v>
+        <v>1.034889446501282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037438820856581</v>
+        <v>1.029735505746243</v>
       </c>
       <c r="J13">
-        <v>1.006324742904375</v>
+        <v>1.025318403270945</v>
       </c>
       <c r="K13">
-        <v>1.017195850680702</v>
+        <v>1.032738877941986</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.013648513425838</v>
+        <v>1.038496049768594</v>
       </c>
       <c r="N13">
-        <v>1.006072720430151</v>
+        <v>1.012501603312365</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9763110230934031</v>
+        <v>1.018706477618129</v>
       </c>
       <c r="D14">
-        <v>1.002724192323161</v>
+        <v>1.029223124147039</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.99924018176062</v>
+        <v>1.035033370666157</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037606096337371</v>
+        <v>1.02975555316195</v>
       </c>
       <c r="J14">
-        <v>1.006740728110146</v>
+        <v>1.025401311174615</v>
       </c>
       <c r="K14">
-        <v>1.017611818262838</v>
+        <v>1.032819282832492</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.014193429073028</v>
+        <v>1.038607786184282</v>
       </c>
       <c r="N14">
-        <v>1.006212273958228</v>
+        <v>1.012529262558506</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9767816756962785</v>
+        <v>1.018795825976293</v>
       </c>
       <c r="D15">
-        <v>1.003074643697094</v>
+        <v>1.02929256209329</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9996719517405482</v>
+        <v>1.035122068014377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037708590435047</v>
+        <v>1.029767874542389</v>
       </c>
       <c r="J15">
-        <v>1.006996158013513</v>
+        <v>1.02545239213179</v>
       </c>
       <c r="K15">
-        <v>1.017867202170937</v>
+        <v>1.032868814312441</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.014528095196392</v>
+        <v>1.038676635642536</v>
       </c>
       <c r="N15">
-        <v>1.006297963405094</v>
+        <v>1.012546303073506</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9794978897360586</v>
+        <v>1.019316091284655</v>
       </c>
       <c r="D16">
-        <v>1.005098594551996</v>
+        <v>1.029696847591553</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.002166157643859</v>
+        <v>1.035638642864761</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038296537287642</v>
+        <v>1.029839124194871</v>
       </c>
       <c r="J16">
-        <v>1.008469758283415</v>
+        <v>1.025749684017273</v>
       </c>
       <c r="K16">
-        <v>1.019339989445308</v>
+        <v>1.033156976172441</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.016459848177226</v>
+        <v>1.039077443801183</v>
       </c>
       <c r="N16">
-        <v>1.006792290505081</v>
+        <v>1.012645466671234</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9811817287481983</v>
+        <v>1.01964263181773</v>
       </c>
       <c r="D17">
-        <v>1.006354489496319</v>
+        <v>1.02995055523829</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.003714420784428</v>
+        <v>1.03596295505779</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03865784789034</v>
+        <v>1.029883406159872</v>
       </c>
       <c r="J17">
-        <v>1.009382779680782</v>
+        <v>1.025936147550756</v>
       </c>
       <c r="K17">
-        <v>1.0202520113608</v>
+        <v>1.03333761444297</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.017657634693274</v>
+        <v>1.039328924482752</v>
       </c>
       <c r="N17">
-        <v>1.007098545627667</v>
+        <v>1.012707651783602</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9821568609202492</v>
+        <v>1.019833166031397</v>
       </c>
       <c r="D18">
-        <v>1.007082205198681</v>
+        <v>1.030098577676838</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.004611759965871</v>
+        <v>1.036152220586567</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038865929813225</v>
+        <v>1.029909086730166</v>
       </c>
       <c r="J18">
-        <v>1.009911331436864</v>
+        <v>1.026044901041361</v>
       </c>
       <c r="K18">
-        <v>1.020779800174356</v>
+        <v>1.03344293470302</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.01835136043352</v>
+        <v>1.039475631553002</v>
       </c>
       <c r="N18">
-        <v>1.007275828983832</v>
+        <v>1.012743916824736</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.982488180717487</v>
+        <v>1.019898144871051</v>
       </c>
       <c r="D19">
-        <v>1.007329528203855</v>
+        <v>1.030149056072217</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.004916768696048</v>
+        <v>1.036216772094209</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038936431748664</v>
+        <v>1.029917817958206</v>
       </c>
       <c r="J19">
-        <v>1.010090883581759</v>
+        <v>1.026081981856082</v>
       </c>
       <c r="K19">
-        <v>1.0209590613249</v>
+        <v>1.033478838856697</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.018587077666842</v>
+        <v>1.039525658662872</v>
       </c>
       <c r="N19">
-        <v>1.00733605159208</v>
+        <v>1.012756281153481</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9810017989943338</v>
+        <v>1.019607589997447</v>
       </c>
       <c r="D20">
-        <v>1.00622024534632</v>
+        <v>1.029923330755294</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.003548903094456</v>
+        <v>1.035928149100726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038619359070957</v>
+        <v>1.029878670463985</v>
       </c>
       <c r="J20">
-        <v>1.009285236547424</v>
+        <v>1.025916142548692</v>
       </c>
       <c r="K20">
-        <v>1.020154593998612</v>
+        <v>1.03331823810248</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.017529635050912</v>
+        <v>1.039301940631501</v>
       </c>
       <c r="N20">
-        <v>1.007065827609423</v>
+        <v>1.012700980576903</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9760856630875107</v>
+        <v>1.018663778285216</v>
       </c>
       <c r="D21">
-        <v>1.002556414051197</v>
+        <v>1.029189939179759</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9990334829322739</v>
+        <v>1.034990984225127</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037556956803759</v>
+        <v>1.029749656049138</v>
       </c>
       <c r="J21">
-        <v>1.006618413061736</v>
+        <v>1.025376897140065</v>
       </c>
       <c r="K21">
-        <v>1.017489515702565</v>
+        <v>1.032795607390963</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.014033189440677</v>
+        <v>1.038574881557551</v>
       </c>
       <c r="N21">
-        <v>1.006171240352956</v>
+        <v>1.012521117861475</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9729276103826987</v>
+        <v>1.018070995428562</v>
       </c>
       <c r="D22">
-        <v>1.000207105161288</v>
+        <v>1.028729191404153</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.996139875295358</v>
+        <v>1.034402663303341</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036864192883505</v>
+        <v>1.029667207592021</v>
       </c>
       <c r="J22">
-        <v>1.004903803674655</v>
+        <v>1.025037792710032</v>
       </c>
       <c r="K22">
-        <v>1.015774460374187</v>
+        <v>1.032466630935827</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.01178819183315</v>
+        <v>1.038117966088229</v>
       </c>
       <c r="N22">
-        <v>1.005596007931106</v>
+        <v>1.012407975684464</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9746083046032143</v>
+        <v>1.018385180697488</v>
       </c>
       <c r="D23">
-        <v>1.001456963269683</v>
+        <v>1.028973407340015</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9976791511717736</v>
+        <v>1.034714456269089</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037233829413901</v>
+        <v>1.029711041115917</v>
       </c>
       <c r="J23">
-        <v>1.005816433463163</v>
+        <v>1.025217563609786</v>
       </c>
       <c r="K23">
-        <v>1.016687468881653</v>
+        <v>1.03264106292897</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.012982844016108</v>
+        <v>1.038360164649375</v>
       </c>
       <c r="N23">
-        <v>1.005902190488357</v>
+        <v>1.012467959591659</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9810831231675623</v>
+        <v>1.019623423675746</v>
       </c>
       <c r="D24">
-        <v>1.006280919391983</v>
+        <v>1.029935632206835</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.003623711111681</v>
+        <v>1.035943876106661</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038636758737457</v>
+        <v>1.029880810779566</v>
       </c>
       <c r="J24">
-        <v>1.009329324427155</v>
+        <v>1.025925181971443</v>
       </c>
       <c r="K24">
-        <v>1.020198625604748</v>
+        <v>1.033326993569689</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.017587487769184</v>
+        <v>1.039314133402611</v>
       </c>
       <c r="N24">
-        <v>1.007080615639421</v>
+        <v>1.012703995028136</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9883229762700275</v>
+        <v>1.021063022976906</v>
       </c>
       <c r="D25">
-        <v>1.011690501497576</v>
+        <v>1.031053766161843</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.010298293493225</v>
+        <v>1.037374453840564</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040160603252717</v>
+        <v>1.030071997141501</v>
       </c>
       <c r="J25">
-        <v>1.013249812080622</v>
+        <v>1.026746033711423</v>
       </c>
       <c r="K25">
-        <v>1.024110008200085</v>
+        <v>1.034121286598878</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.02273881785918</v>
+        <v>1.040422043270347</v>
       </c>
       <c r="N25">
-        <v>1.008395418233712</v>
+        <v>1.012977645092706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022213354495531</v>
+        <v>0.9938950451627082</v>
       </c>
       <c r="D2">
-        <v>1.031946749316871</v>
+        <v>1.015864084152103</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.038518555771472</v>
+        <v>1.015455551489158</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030219767504432</v>
+        <v>1.041295787920206</v>
       </c>
       <c r="J2">
-        <v>1.027400456009924</v>
+        <v>1.01625990036518</v>
       </c>
       <c r="K2">
-        <v>1.034753398002257</v>
+        <v>1.027106744206827</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.04130635982613</v>
+        <v>1.026703684646488</v>
       </c>
       <c r="N2">
-        <v>1.013195684962477</v>
+        <v>1.009404537152682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023049794871936</v>
+        <v>0.9978318289953826</v>
       </c>
       <c r="D3">
-        <v>1.032595775572389</v>
+        <v>1.018817588407481</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.039351025309873</v>
+        <v>1.019110116987435</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030324312505385</v>
+        <v>1.042075216246246</v>
       </c>
       <c r="J3">
-        <v>1.027875436477408</v>
+        <v>1.018381775557514</v>
       </c>
       <c r="K3">
-        <v>1.035211521753906</v>
+        <v>1.029215225764369</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.041948799947362</v>
+        <v>1.029504182634315</v>
       </c>
       <c r="N3">
-        <v>1.013353864146786</v>
+        <v>1.010115634618725</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023591573128362</v>
+        <v>1.000331300935248</v>
       </c>
       <c r="D4">
-        <v>1.033016024765011</v>
+        <v>1.020694643569417</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.039890487155654</v>
+        <v>1.021435168271613</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030390683779427</v>
+        <v>1.042559343658994</v>
       </c>
       <c r="J4">
-        <v>1.028182686297131</v>
+        <v>1.019726535796129</v>
       </c>
       <c r="K4">
-        <v>1.035507559126296</v>
+        <v>1.030549557168602</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.042364652861201</v>
+        <v>1.031281593954575</v>
       </c>
       <c r="N4">
-        <v>1.013456150574995</v>
+        <v>1.010566170135608</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023819465725599</v>
+        <v>1.001370973428326</v>
       </c>
       <c r="D5">
-        <v>1.033192764124587</v>
+        <v>1.02147581689422</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.040117466112167</v>
+        <v>1.022403394237603</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030418280037187</v>
+        <v>1.042758104299591</v>
       </c>
       <c r="J5">
-        <v>1.02831183031977</v>
+        <v>1.020285288595276</v>
       </c>
       <c r="K5">
-        <v>1.035631916262068</v>
+        <v>1.031103496612783</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.042539511973366</v>
+        <v>1.03202072925092</v>
       </c>
       <c r="N5">
-        <v>1.013499135525952</v>
+        <v>1.010753336170935</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023857737416069</v>
+        <v>1.001544897940937</v>
       </c>
       <c r="D6">
-        <v>1.033222443293066</v>
+        <v>1.021606519721797</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.040155587915889</v>
+        <v>1.022565430509126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030422895593609</v>
+        <v>1.042791199630575</v>
       </c>
       <c r="J6">
-        <v>1.028333512738065</v>
+        <v>1.020378724483509</v>
       </c>
       <c r="K6">
-        <v>1.035652790645647</v>
+        <v>1.031196098953531</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.042568873565596</v>
+        <v>1.032144365185945</v>
       </c>
       <c r="N6">
-        <v>1.013506351921758</v>
+        <v>1.010784632487978</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023594617735389</v>
+        <v>1.000345236261771</v>
       </c>
       <c r="D7">
-        <v>1.033018386105593</v>
+        <v>1.020705112570199</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.039893519318606</v>
+        <v>1.021448141644135</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03039105372607</v>
+        <v>1.04256201814288</v>
       </c>
       <c r="J7">
-        <v>1.028184412020945</v>
+        <v>1.019734027523683</v>
       </c>
       <c r="K7">
-        <v>1.035509221175209</v>
+        <v>1.030556986274974</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.042366989203544</v>
+        <v>1.031291501815317</v>
       </c>
       <c r="N7">
-        <v>1.013456725006476</v>
+        <v>1.010568679781222</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022495919574101</v>
+        <v>0.9952356373668271</v>
       </c>
       <c r="D8">
-        <v>1.032166030505041</v>
+        <v>1.016869418336147</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.038799726272138</v>
+        <v>1.016699019655126</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030255362847524</v>
+        <v>1.04156343003914</v>
       </c>
       <c r="J8">
-        <v>1.027560996672622</v>
+        <v>1.016982952161553</v>
       </c>
       <c r="K8">
-        <v>1.034908304926108</v>
+        <v>1.027825630018922</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.041523443175166</v>
+        <v>1.027657445058044</v>
       </c>
       <c r="N8">
-        <v>1.013249155774469</v>
+        <v>1.009646877284939</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020564118804924</v>
+        <v>0.9858481013349391</v>
       </c>
       <c r="D9">
-        <v>1.030666340480161</v>
+        <v>1.009839530338463</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.036878523570111</v>
+        <v>1.008013337254418</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03000651258276</v>
+        <v>1.039645507794992</v>
       </c>
       <c r="J9">
-        <v>1.026461791031764</v>
+        <v>1.011910691462404</v>
       </c>
       <c r="K9">
-        <v>1.033846416075593</v>
+        <v>1.022774959985108</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.040038238151793</v>
+        <v>1.020977727897046</v>
       </c>
       <c r="N9">
-        <v>1.012882905741685</v>
+        <v>1.007946373395965</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019279198386136</v>
+        <v>0.979306637056109</v>
       </c>
       <c r="D10">
-        <v>1.029668181514221</v>
+        <v>1.004956005975375</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.035602006003683</v>
+        <v>1.001990403324724</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029834099849149</v>
+        <v>1.038255342631282</v>
       </c>
       <c r="J10">
-        <v>1.025728610852808</v>
+        <v>1.008366031048331</v>
       </c>
       <c r="K10">
-        <v>1.033136556525253</v>
+        <v>1.019236351064404</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.039049027166638</v>
+        <v>1.016323813179127</v>
       </c>
       <c r="N10">
-        <v>1.012638438288295</v>
+        <v>1.006757496071666</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018723531894759</v>
+        <v>0.9764009537863535</v>
       </c>
       <c r="D11">
-        <v>1.029236378211678</v>
+        <v>1.002791149612117</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.035050300293431</v>
+        <v>0.9993226734579975</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029757906909498</v>
+        <v>1.037625694312301</v>
       </c>
       <c r="J11">
-        <v>1.025411061766187</v>
+        <v>1.006789536749733</v>
       </c>
       <c r="K11">
-        <v>1.032828738084476</v>
+        <v>1.017660620202914</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.038620928117932</v>
+        <v>1.014257374479483</v>
       </c>
       <c r="N11">
-        <v>1.012532515386208</v>
+        <v>1.006228647951621</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018517241207839</v>
+        <v>0.9753101103029194</v>
       </c>
       <c r="D12">
-        <v>1.029076050101707</v>
+        <v>1.001979154401242</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.034845529661271</v>
+        <v>0.9983223643878074</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029729375184482</v>
+        <v>1.037387540826521</v>
       </c>
       <c r="J12">
-        <v>1.025293099518384</v>
+        <v>1.006197435680676</v>
       </c>
       <c r="K12">
-        <v>1.032714335196063</v>
+        <v>1.017068534911995</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.038461950162705</v>
+        <v>1.01348177598126</v>
       </c>
       <c r="N12">
-        <v>1.01249316129972</v>
+        <v>1.006030011205093</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018561486321827</v>
+        <v>0.9755446314694547</v>
       </c>
       <c r="D13">
-        <v>1.029110438151237</v>
+        <v>1.00215369167036</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.034889446501282</v>
+        <v>0.9985373662115313</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029735505746243</v>
+        <v>1.037438820856581</v>
       </c>
       <c r="J13">
-        <v>1.025318403270945</v>
+        <v>1.006324742904375</v>
       </c>
       <c r="K13">
-        <v>1.032738877941986</v>
+        <v>1.017195850680702</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.038496049768594</v>
+        <v>1.013648513425838</v>
       </c>
       <c r="N13">
-        <v>1.012501603312365</v>
+        <v>1.006072720430151</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018706477618129</v>
+        <v>0.9763110230934031</v>
       </c>
       <c r="D14">
-        <v>1.029223124147039</v>
+        <v>1.00272419232316</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.035033370666157</v>
+        <v>0.9992401817606199</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02975555316195</v>
+        <v>1.037606096337371</v>
       </c>
       <c r="J14">
-        <v>1.025401311174615</v>
+        <v>1.006740728110145</v>
       </c>
       <c r="K14">
-        <v>1.032819282832492</v>
+        <v>1.017611818262838</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.038607786184282</v>
+        <v>1.014193429073028</v>
       </c>
       <c r="N14">
-        <v>1.012529262558506</v>
+        <v>1.006212273958228</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018795825976293</v>
+        <v>0.9767816756962792</v>
       </c>
       <c r="D15">
-        <v>1.02929256209329</v>
+        <v>1.003074643697094</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.035122068014377</v>
+        <v>0.9996719517405492</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029767874542389</v>
+        <v>1.037708590435047</v>
       </c>
       <c r="J15">
-        <v>1.02545239213179</v>
+        <v>1.006996158013514</v>
       </c>
       <c r="K15">
-        <v>1.032868814312441</v>
+        <v>1.017867202170937</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.038676635642536</v>
+        <v>1.014528095196393</v>
       </c>
       <c r="N15">
-        <v>1.012546303073506</v>
+        <v>1.006297963405094</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019316091284655</v>
+        <v>0.9794978897360586</v>
       </c>
       <c r="D16">
-        <v>1.029696847591553</v>
+        <v>1.005098594551996</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.035638642864761</v>
+        <v>1.002166157643859</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029839124194871</v>
+        <v>1.038296537287642</v>
       </c>
       <c r="J16">
-        <v>1.025749684017273</v>
+        <v>1.008469758283415</v>
       </c>
       <c r="K16">
-        <v>1.033156976172441</v>
+        <v>1.019339989445308</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.039077443801183</v>
+        <v>1.016459848177226</v>
       </c>
       <c r="N16">
-        <v>1.012645466671234</v>
+        <v>1.006792290505081</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01964263181773</v>
+        <v>0.981181728748197</v>
       </c>
       <c r="D17">
-        <v>1.02995055523829</v>
+        <v>1.006354489496318</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.03596295505779</v>
+        <v>1.003714420784427</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029883406159872</v>
+        <v>1.03865784789034</v>
       </c>
       <c r="J17">
-        <v>1.025936147550756</v>
+        <v>1.009382779680781</v>
       </c>
       <c r="K17">
-        <v>1.03333761444297</v>
+        <v>1.020252011360799</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.039328924482752</v>
+        <v>1.017657634693272</v>
       </c>
       <c r="N17">
-        <v>1.012707651783602</v>
+        <v>1.007098545627667</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019833166031397</v>
+        <v>0.9821568609202491</v>
       </c>
       <c r="D18">
-        <v>1.030098577676838</v>
+        <v>1.007082205198681</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.036152220586567</v>
+        <v>1.004611759965871</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029909086730166</v>
+        <v>1.038865929813225</v>
       </c>
       <c r="J18">
-        <v>1.026044901041361</v>
+        <v>1.009911331436864</v>
       </c>
       <c r="K18">
-        <v>1.03344293470302</v>
+        <v>1.020779800174357</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.039475631553002</v>
+        <v>1.01835136043352</v>
       </c>
       <c r="N18">
-        <v>1.012743916824736</v>
+        <v>1.007275828983832</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019898144871051</v>
+        <v>0.9824881807174869</v>
       </c>
       <c r="D19">
-        <v>1.030149056072217</v>
+        <v>1.007329528203855</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.036216772094209</v>
+        <v>1.004916768696047</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029917817958206</v>
+        <v>1.038936431748664</v>
       </c>
       <c r="J19">
-        <v>1.026081981856082</v>
+        <v>1.010090883581759</v>
       </c>
       <c r="K19">
-        <v>1.033478838856697</v>
+        <v>1.0209590613249</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.039525658662872</v>
+        <v>1.018587077666842</v>
       </c>
       <c r="N19">
-        <v>1.012756281153481</v>
+        <v>1.00733605159208</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019607589997447</v>
+        <v>0.981001798994334</v>
       </c>
       <c r="D20">
-        <v>1.029923330755294</v>
+        <v>1.006220245346321</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.035928149100726</v>
+        <v>1.003548903094456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029878670463985</v>
+        <v>1.038619359070957</v>
       </c>
       <c r="J20">
-        <v>1.025916142548692</v>
+        <v>1.009285236547424</v>
       </c>
       <c r="K20">
-        <v>1.03331823810248</v>
+        <v>1.020154593998613</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.039301940631501</v>
+        <v>1.017529635050912</v>
       </c>
       <c r="N20">
-        <v>1.012700980576903</v>
+        <v>1.007065827609422</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018663778285216</v>
+        <v>0.9760856630875105</v>
       </c>
       <c r="D21">
-        <v>1.029189939179759</v>
+        <v>1.002556414051197</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.034990984225127</v>
+        <v>0.9990334829322737</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029749656049138</v>
+        <v>1.037556956803759</v>
       </c>
       <c r="J21">
-        <v>1.025376897140065</v>
+        <v>1.006618413061736</v>
       </c>
       <c r="K21">
-        <v>1.032795607390963</v>
+        <v>1.017489515702564</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.038574881557551</v>
+        <v>1.014033189440676</v>
       </c>
       <c r="N21">
-        <v>1.012521117861475</v>
+        <v>1.006171240352956</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018070995428562</v>
+        <v>0.9729276103826987</v>
       </c>
       <c r="D22">
-        <v>1.028729191404153</v>
+        <v>1.000207105161288</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.034402663303341</v>
+        <v>0.9961398752953577</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029667207592021</v>
+        <v>1.036864192883505</v>
       </c>
       <c r="J22">
-        <v>1.025037792710032</v>
+        <v>1.004903803674655</v>
       </c>
       <c r="K22">
-        <v>1.032466630935827</v>
+        <v>1.015774460374187</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.038117966088229</v>
+        <v>1.01178819183315</v>
       </c>
       <c r="N22">
-        <v>1.012407975684464</v>
+        <v>1.005596007931106</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018385180697488</v>
+        <v>0.9746083046032148</v>
       </c>
       <c r="D23">
-        <v>1.028973407340015</v>
+        <v>1.001456963269683</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.034714456269089</v>
+        <v>0.9976791511717743</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029711041115917</v>
+        <v>1.037233829413901</v>
       </c>
       <c r="J23">
-        <v>1.025217563609786</v>
+        <v>1.005816433463164</v>
       </c>
       <c r="K23">
-        <v>1.03264106292897</v>
+        <v>1.016687468881654</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.038360164649375</v>
+        <v>1.012982844016108</v>
       </c>
       <c r="N23">
-        <v>1.012467959591659</v>
+        <v>1.005902190488357</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019623423675746</v>
+        <v>0.9810831231675617</v>
       </c>
       <c r="D24">
-        <v>1.029935632206835</v>
+        <v>1.006280919391982</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.035943876106661</v>
+        <v>1.00362371111168</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029880810779566</v>
+        <v>1.038636758737457</v>
       </c>
       <c r="J24">
-        <v>1.025925181971443</v>
+        <v>1.009329324427155</v>
       </c>
       <c r="K24">
-        <v>1.033326993569689</v>
+        <v>1.020198625604747</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.039314133402611</v>
+        <v>1.017587487769184</v>
       </c>
       <c r="N24">
-        <v>1.012703995028136</v>
+        <v>1.007080615639421</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021063022976906</v>
+        <v>0.9883229762700273</v>
       </c>
       <c r="D25">
-        <v>1.031053766161843</v>
+        <v>1.011690501497576</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.037374453840564</v>
+        <v>1.010298293493225</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030071997141501</v>
+        <v>1.040160603252717</v>
       </c>
       <c r="J25">
-        <v>1.026746033711423</v>
+        <v>1.013249812080622</v>
       </c>
       <c r="K25">
-        <v>1.034121286598878</v>
+        <v>1.024110008200085</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.040422043270347</v>
+        <v>1.022738817859179</v>
       </c>
       <c r="N25">
-        <v>1.012977645092706</v>
+        <v>1.008395418233712</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9938950451627082</v>
+        <v>1.007445032365859</v>
       </c>
       <c r="D2">
-        <v>1.015864084152103</v>
+        <v>1.025220410913259</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.02506571872134</v>
       </c>
       <c r="F2">
-        <v>1.015455551489158</v>
+        <v>1.03358439423057</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041295787920206</v>
+        <v>1.045699168931301</v>
       </c>
       <c r="J2">
-        <v>1.01625990036518</v>
+        <v>1.029405321393432</v>
       </c>
       <c r="K2">
-        <v>1.027106744206827</v>
+        <v>1.036339220646769</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.036186553091799</v>
       </c>
       <c r="M2">
-        <v>1.026703684646488</v>
+        <v>1.044594862814924</v>
       </c>
       <c r="N2">
-        <v>1.009404537152682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013760639922171</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043866225413013</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036765233714406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9978318289953826</v>
+        <v>1.010504313213124</v>
       </c>
       <c r="D3">
-        <v>1.018817588407481</v>
+        <v>1.027174113546538</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.028157197930955</v>
       </c>
       <c r="F3">
-        <v>1.019110116987435</v>
+        <v>1.036376061566535</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042075216246246</v>
+        <v>1.046313534620829</v>
       </c>
       <c r="J3">
-        <v>1.018381775557514</v>
+        <v>1.030712659256564</v>
       </c>
       <c r="K3">
-        <v>1.029215225764369</v>
+        <v>1.037470713289458</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.038442045238666</v>
       </c>
       <c r="M3">
-        <v>1.029504182634315</v>
+        <v>1.046563734799294</v>
       </c>
       <c r="N3">
-        <v>1.010115634618725</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014198274731891</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045424446686231</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037562627499157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000331300935248</v>
+        <v>1.012452553647107</v>
       </c>
       <c r="D4">
-        <v>1.020694643569417</v>
+        <v>1.028422260924959</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.030132989014321</v>
       </c>
       <c r="F4">
-        <v>1.021435168271613</v>
+        <v>1.038160061758667</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042559343658994</v>
+        <v>1.046697480479545</v>
       </c>
       <c r="J4">
-        <v>1.019726535796129</v>
+        <v>1.031542997993804</v>
       </c>
       <c r="K4">
-        <v>1.030549557168602</v>
+        <v>1.038189341792557</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.039880844999387</v>
       </c>
       <c r="M4">
-        <v>1.031281593954575</v>
+        <v>1.047818750685902</v>
       </c>
       <c r="N4">
-        <v>1.010566170135608</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014476275386814</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046417700217269</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038071658686896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001370973428326</v>
+        <v>1.013266690076175</v>
       </c>
       <c r="D5">
-        <v>1.02147581689422</v>
+        <v>1.028946864899753</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.030958846374392</v>
       </c>
       <c r="F5">
-        <v>1.022403394237603</v>
+        <v>1.038905774932627</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042758104299591</v>
+        <v>1.046857412179909</v>
       </c>
       <c r="J5">
-        <v>1.020285288595276</v>
+        <v>1.031890760505087</v>
       </c>
       <c r="K5">
-        <v>1.031103496612783</v>
+        <v>1.038491875487913</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.0404818452763</v>
       </c>
       <c r="M5">
-        <v>1.03202072925092</v>
+        <v>1.048342853228904</v>
       </c>
       <c r="N5">
-        <v>1.010753336170935</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014592899288299</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046832488754238</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.0382927628488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001544897940937</v>
+        <v>1.013405897814187</v>
       </c>
       <c r="D6">
-        <v>1.021606519721797</v>
+        <v>1.029039164002504</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.031098364878266</v>
       </c>
       <c r="F6">
-        <v>1.022565430509126</v>
+        <v>1.039031836636372</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042791199630575</v>
+        <v>1.046886193048865</v>
       </c>
       <c r="J6">
-        <v>1.020378724483509</v>
+        <v>1.031951803019389</v>
       </c>
       <c r="K6">
-        <v>1.031196098953531</v>
+        <v>1.038546873203636</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.040583648358155</v>
       </c>
       <c r="M6">
-        <v>1.032144365185945</v>
+        <v>1.048431738293534</v>
       </c>
       <c r="N6">
-        <v>1.010784632487978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014613591969932</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04690283470901</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038340415470339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000345236261771</v>
+        <v>1.012471332671669</v>
       </c>
       <c r="D7">
-        <v>1.020705112570199</v>
+        <v>1.028441158572759</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.030147244324341</v>
       </c>
       <c r="F7">
-        <v>1.021448141644135</v>
+        <v>1.038173146756035</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04256201814288</v>
+        <v>1.046705297396539</v>
       </c>
       <c r="J7">
-        <v>1.019734027523683</v>
+        <v>1.031555336420189</v>
       </c>
       <c r="K7">
-        <v>1.030556986274974</v>
+        <v>1.038205136209079</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.039892056402382</v>
       </c>
       <c r="M7">
-        <v>1.031291501815317</v>
+        <v>1.047828837369176</v>
       </c>
       <c r="N7">
-        <v>1.010568679781222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014481013788172</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046425683085907</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038102983740494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9952356373668271</v>
+        <v>1.008495277350025</v>
       </c>
       <c r="D8">
-        <v>1.016869418336147</v>
+        <v>1.025898650117532</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.026119721446919</v>
       </c>
       <c r="F8">
-        <v>1.016699019655126</v>
+        <v>1.034536402351838</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04156343003914</v>
+        <v>1.045916619620916</v>
       </c>
       <c r="J8">
-        <v>1.016982952161553</v>
+        <v>1.029859887249964</v>
       </c>
       <c r="K8">
-        <v>1.027825630018922</v>
+        <v>1.036738873114731</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.036957136552528</v>
       </c>
       <c r="M8">
-        <v>1.027657445058044</v>
+        <v>1.045268026907256</v>
       </c>
       <c r="N8">
-        <v>1.009646877284939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013913579479826</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04439898699048</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037070780582415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9858481013349391</v>
+        <v>1.001228071375745</v>
       </c>
       <c r="D9">
-        <v>1.009839530338463</v>
+        <v>1.021273407952813</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>1.018822063574718</v>
       </c>
       <c r="F9">
-        <v>1.008013337254418</v>
+        <v>1.027945496770484</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039645507794992</v>
+        <v>1.044412148019393</v>
       </c>
       <c r="J9">
-        <v>1.011910691462404</v>
+        <v>1.026737537685304</v>
       </c>
       <c r="K9">
-        <v>1.022774959985108</v>
+        <v>1.034030516629464</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>1.031616972529108</v>
       </c>
       <c r="M9">
-        <v>1.020977727897046</v>
+        <v>1.040600883662924</v>
       </c>
       <c r="N9">
-        <v>1.007946373395965</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012867948165615</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040705266501846</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035152609284948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.979306637056109</v>
+        <v>0.9962441769693091</v>
       </c>
       <c r="D10">
-        <v>1.004956005975375</v>
+        <v>1.018133450068705</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>1.013974621374844</v>
       </c>
       <c r="F10">
-        <v>1.001990403324724</v>
+        <v>1.023596873703284</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038255342631282</v>
+        <v>1.043364010379304</v>
       </c>
       <c r="J10">
-        <v>1.008366031048331</v>
+        <v>1.024607605676338</v>
       </c>
       <c r="K10">
-        <v>1.019236351064404</v>
+        <v>1.032182840246843</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>1.02809606202922</v>
       </c>
       <c r="M10">
-        <v>1.016323813179127</v>
+        <v>1.037552760483326</v>
       </c>
       <c r="N10">
-        <v>1.006757496071666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012157018894761</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038344324764114</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033863033302657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9764009537863535</v>
+        <v>0.9943589544228864</v>
       </c>
       <c r="D11">
-        <v>1.002791149612117</v>
+        <v>1.017009664604488</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>1.013120241516489</v>
       </c>
       <c r="F11">
-        <v>0.9993226734579975</v>
+        <v>1.023070423343207</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037625694312301</v>
+        <v>1.043115981890504</v>
       </c>
       <c r="J11">
-        <v>1.006789536749733</v>
+        <v>1.023968305152753</v>
       </c>
       <c r="K11">
-        <v>1.017660620202914</v>
+        <v>1.031617777888103</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.02779889949163</v>
       </c>
       <c r="M11">
-        <v>1.014257374479483</v>
+        <v>1.037569996596654</v>
       </c>
       <c r="N11">
-        <v>1.006228647951621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011960171636219</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.03879401396489</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033496419771305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9753101103029194</v>
+        <v>0.9937670957698893</v>
       </c>
       <c r="D12">
-        <v>1.001979154401242</v>
+        <v>1.016676325217989</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.013280892227069</v>
       </c>
       <c r="F12">
-        <v>0.9983223643878074</v>
+        <v>1.023389702255596</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037387540826521</v>
+        <v>1.043101966333851</v>
       </c>
       <c r="J12">
-        <v>1.006197435680676</v>
+        <v>1.023837606014013</v>
       </c>
       <c r="K12">
-        <v>1.017068534911995</v>
+        <v>1.031490858424774</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.028157999040781</v>
       </c>
       <c r="M12">
-        <v>1.01348177598126</v>
+        <v>1.038082104846962</v>
       </c>
       <c r="N12">
-        <v>1.006030011205093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011929514403938</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039525222121324</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033406683273685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9755446314694547</v>
+        <v>0.9941384496070084</v>
       </c>
       <c r="D13">
-        <v>1.00215369167036</v>
+        <v>1.016940449482024</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>1.014240709554915</v>
       </c>
       <c r="F13">
-        <v>0.9985373662115313</v>
+        <v>1.024395851431589</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037438820856581</v>
+        <v>1.043276819144037</v>
       </c>
       <c r="J13">
-        <v>1.006324742904375</v>
+        <v>1.024099432385964</v>
       </c>
       <c r="K13">
-        <v>1.017195850680702</v>
+        <v>1.031707168672525</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.02905693721875</v>
       </c>
       <c r="M13">
-        <v>1.013648513425838</v>
+        <v>1.039027612307622</v>
       </c>
       <c r="N13">
-        <v>1.006072720430151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012028847935661</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040549205190977</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033557124603858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9763110230934031</v>
+        <v>0.9948352419438834</v>
       </c>
       <c r="D14">
-        <v>1.00272419232316</v>
+        <v>1.017397551104773</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>1.015267504023424</v>
       </c>
       <c r="F14">
-        <v>0.9992401817606199</v>
+        <v>1.025405417301366</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037606096337371</v>
+        <v>1.043484525035098</v>
       </c>
       <c r="J14">
-        <v>1.006740728110145</v>
+        <v>1.02446043422593</v>
       </c>
       <c r="K14">
-        <v>1.017611818262838</v>
+        <v>1.032015216307513</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>1.029923728047746</v>
       </c>
       <c r="M14">
-        <v>1.014193429073028</v>
+        <v>1.039879980322592</v>
       </c>
       <c r="N14">
-        <v>1.006212273958228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012157377622082</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041396107327374</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033776352582418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9767816756962792</v>
+        <v>0.9952175576500916</v>
       </c>
       <c r="D15">
-        <v>1.003074643697094</v>
+        <v>1.017643687251635</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>1.015707503350783</v>
       </c>
       <c r="F15">
-        <v>0.9996719517405492</v>
+        <v>1.025820117352855</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037708590435047</v>
+        <v>1.043579746274969</v>
       </c>
       <c r="J15">
-        <v>1.006996158013514</v>
+        <v>1.024638351940114</v>
       </c>
       <c r="K15">
-        <v>1.017867202170937</v>
+        <v>1.032170243825451</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>1.030268839376913</v>
       </c>
       <c r="M15">
-        <v>1.014528095196393</v>
+        <v>1.040201677875486</v>
       </c>
       <c r="N15">
-        <v>1.006297963405094</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012218703622572</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041687868978179</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033891845247357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9794978897360586</v>
+        <v>0.9972465360647005</v>
       </c>
       <c r="D16">
-        <v>1.005098594551996</v>
+        <v>1.018916042603796</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>1.017580050133135</v>
       </c>
       <c r="F16">
-        <v>1.002166157643859</v>
+        <v>1.027494142382268</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038296537287642</v>
+        <v>1.044000080083436</v>
       </c>
       <c r="J16">
-        <v>1.008469758283415</v>
+        <v>1.025492690056859</v>
       </c>
       <c r="K16">
-        <v>1.019339989445308</v>
+        <v>1.032916259317538</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>1.031603216259856</v>
       </c>
       <c r="M16">
-        <v>1.016459848177226</v>
+        <v>1.041348839229709</v>
       </c>
       <c r="N16">
-        <v>1.006792290505081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012501912668081</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042555917254324</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034422482862042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.981181728748197</v>
+        <v>0.9984416070780937</v>
       </c>
       <c r="D17">
-        <v>1.006354489496318</v>
+        <v>1.019656104583739</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.018480017512083</v>
       </c>
       <c r="F17">
-        <v>1.003714420784427</v>
+        <v>1.028246315224255</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03865784789034</v>
+        <v>1.044212560931997</v>
       </c>
       <c r="J17">
-        <v>1.009382779680781</v>
+        <v>1.025959804033283</v>
       </c>
       <c r="K17">
-        <v>1.020252011360799</v>
+        <v>1.033328050475902</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>1.032171602115685</v>
       </c>
       <c r="M17">
-        <v>1.017657634693272</v>
+        <v>1.041776569663089</v>
       </c>
       <c r="N17">
-        <v>1.007098545627667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012652044479033</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042765147909195</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034716231423508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9821568609202491</v>
+        <v>0.9990243466551192</v>
       </c>
       <c r="D18">
-        <v>1.007082205198681</v>
+        <v>1.019994462353496</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>1.018568517858865</v>
       </c>
       <c r="F18">
-        <v>1.004611759965871</v>
+        <v>1.028207838144735</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038865929813225</v>
+        <v>1.044256801262495</v>
       </c>
       <c r="J18">
-        <v>1.009911331436864</v>
+        <v>1.026124263737356</v>
       </c>
       <c r="K18">
-        <v>1.020779800174357</v>
+        <v>1.033476765292529</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>1.032074251332922</v>
       </c>
       <c r="M18">
-        <v>1.01835136043352</v>
+        <v>1.041556805362856</v>
       </c>
       <c r="N18">
-        <v>1.007275828983832</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01269665214641</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042354064048811</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034809718095787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9824881807174869</v>
+        <v>0.9990618958303191</v>
       </c>
       <c r="D19">
-        <v>1.007329528203855</v>
+        <v>1.019984996382519</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>1.017915376532666</v>
       </c>
       <c r="F19">
-        <v>1.004916768696047</v>
+        <v>1.027446172209501</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038936431748664</v>
+        <v>1.044157966724193</v>
       </c>
       <c r="J19">
-        <v>1.010090883581759</v>
+        <v>1.026025555715586</v>
       </c>
       <c r="K19">
-        <v>1.0209590613249</v>
+        <v>1.033404711505383</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.031368945540202</v>
       </c>
       <c r="M19">
-        <v>1.018587077666842</v>
+        <v>1.040745292651899</v>
       </c>
       <c r="N19">
-        <v>1.00733605159208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012651345755422</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04138730387908</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034765181465288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.981001798994334</v>
+        <v>0.9975538922876275</v>
       </c>
       <c r="D20">
-        <v>1.006220245346321</v>
+        <v>1.018973709118269</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.015240279445252</v>
       </c>
       <c r="F20">
-        <v>1.003548903094456</v>
+        <v>1.024733972934128</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038619359070957</v>
+        <v>1.04365266585832</v>
       </c>
       <c r="J20">
-        <v>1.009285236547424</v>
+        <v>1.025179434025705</v>
       </c>
       <c r="K20">
-        <v>1.020154593998613</v>
+        <v>1.032690936433882</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.029020337873035</v>
       </c>
       <c r="M20">
-        <v>1.017529635050912</v>
+        <v>1.038355414600594</v>
       </c>
       <c r="N20">
-        <v>1.007065827609422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012349694883324</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038968990249578</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034264437179006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9760856630875105</v>
+        <v>0.993760429473585</v>
       </c>
       <c r="D21">
-        <v>1.002556414051197</v>
+        <v>1.016578472365768</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>1.011381165152833</v>
       </c>
       <c r="F21">
-        <v>0.9990334829322737</v>
+        <v>1.021224612309241</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037556956803759</v>
+        <v>1.042811380161736</v>
       </c>
       <c r="J21">
-        <v>1.006618413061736</v>
+        <v>1.023521360972034</v>
       </c>
       <c r="K21">
-        <v>1.017489515702564</v>
+        <v>1.031252423311258</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>1.026150078950317</v>
       </c>
       <c r="M21">
-        <v>1.014033189440676</v>
+        <v>1.035814734069811</v>
       </c>
       <c r="N21">
-        <v>1.006171240352956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011793199177436</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036917341087624</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033250576642995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9729276103826987</v>
+        <v>0.9913449438213155</v>
       </c>
       <c r="D22">
-        <v>1.000207105161288</v>
+        <v>1.015055556079693</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>1.008996742335873</v>
       </c>
       <c r="F22">
-        <v>0.9961398752953577</v>
+        <v>1.019071040396329</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036864192883505</v>
+        <v>1.04227407843843</v>
       </c>
       <c r="J22">
-        <v>1.004903803674655</v>
+        <v>1.022469773074259</v>
       </c>
       <c r="K22">
-        <v>1.015774460374187</v>
+        <v>1.030334545472446</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.024392054333977</v>
       </c>
       <c r="M22">
-        <v>1.01178819183315</v>
+        <v>1.034273932575909</v>
       </c>
       <c r="N22">
-        <v>1.005596007931106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011440512665185</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03569789286535</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032588057026679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9746083046032148</v>
+        <v>0.9926223696648624</v>
       </c>
       <c r="D23">
-        <v>1.001456963269683</v>
+        <v>1.015854521292025</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>1.01026081079919</v>
       </c>
       <c r="F23">
-        <v>0.9976791511717743</v>
+        <v>1.020212772590168</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037233829413901</v>
+        <v>1.042555483101261</v>
       </c>
       <c r="J23">
-        <v>1.005816433463164</v>
+        <v>1.023022364935608</v>
       </c>
       <c r="K23">
-        <v>1.016687468881654</v>
+        <v>1.030812612580772</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>1.025323535023504</v>
       </c>
       <c r="M23">
-        <v>1.012982844016108</v>
+        <v>1.035090376643784</v>
       </c>
       <c r="N23">
-        <v>1.005902190488357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011625191558519</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036344057652389</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032916418063139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9810831231675617</v>
+        <v>0.9975752654817351</v>
       </c>
       <c r="D24">
-        <v>1.006280919391982</v>
+        <v>1.018972776600902</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.0151733049003</v>
       </c>
       <c r="F24">
-        <v>1.00362371111168</v>
+        <v>1.024649870563784</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038636758737457</v>
+        <v>1.043637137597339</v>
       </c>
       <c r="J24">
-        <v>1.009329324427155</v>
+        <v>1.025166974124458</v>
       </c>
       <c r="K24">
-        <v>1.020198625604747</v>
+        <v>1.032674704462673</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.028939098789958</v>
       </c>
       <c r="M24">
-        <v>1.017587487769184</v>
+        <v>1.038257506665959</v>
       </c>
       <c r="N24">
-        <v>1.007080615639421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012343120447509</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038850638865989</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034225496030889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883229762700273</v>
+        <v>1.003149833960311</v>
       </c>
       <c r="D25">
-        <v>1.011690501497576</v>
+        <v>1.022502953174592</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>1.020738105199588</v>
       </c>
       <c r="F25">
-        <v>1.010298293493225</v>
+        <v>1.029676170567595</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040160603252717</v>
+        <v>1.044822654213552</v>
       </c>
       <c r="J25">
-        <v>1.013249812080622</v>
+        <v>1.02757165662982</v>
       </c>
       <c r="K25">
-        <v>1.024110008200085</v>
+        <v>1.034761701836624</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>1.033022797970949</v>
       </c>
       <c r="M25">
-        <v>1.022738817859179</v>
+        <v>1.041830629248388</v>
       </c>
       <c r="N25">
-        <v>1.008395418233712</v>
+        <v>1.013148271021863</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041678526747826</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035698250485723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007445032365859</v>
+        <v>1.007235389151916</v>
       </c>
       <c r="D2">
-        <v>1.025220410913259</v>
+        <v>1.024597734049026</v>
       </c>
       <c r="E2">
-        <v>1.02506571872134</v>
+        <v>1.025000457055201</v>
       </c>
       <c r="F2">
-        <v>1.03358439423057</v>
+        <v>1.03348904317439</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045699168931301</v>
+        <v>1.045461330688032</v>
       </c>
       <c r="J2">
-        <v>1.029405321393432</v>
+        <v>1.029201823816825</v>
       </c>
       <c r="K2">
-        <v>1.036339220646769</v>
+        <v>1.035724698144859</v>
       </c>
       <c r="L2">
-        <v>1.036186553091799</v>
+        <v>1.036122145810793</v>
       </c>
       <c r="M2">
-        <v>1.044594862814924</v>
+        <v>1.044500734515022</v>
       </c>
       <c r="N2">
-        <v>1.013760639922171</v>
+        <v>1.014983599550831</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043866225413013</v>
+        <v>1.043791729516747</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036765233714406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036339506377029</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021605276466496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010504313213124</v>
+        <v>1.010205783543992</v>
       </c>
       <c r="D3">
-        <v>1.027174113546538</v>
+        <v>1.026428705342293</v>
       </c>
       <c r="E3">
-        <v>1.028157197930955</v>
+        <v>1.028063552348437</v>
       </c>
       <c r="F3">
-        <v>1.036376061566535</v>
+        <v>1.036246847033116</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I3">
-        <v>1.046313534620829</v>
+        <v>1.046017107264332</v>
       </c>
       <c r="J3">
-        <v>1.030712659256564</v>
+        <v>1.030422042989831</v>
       </c>
       <c r="K3">
-        <v>1.037470713289458</v>
+        <v>1.036734234799379</v>
       </c>
       <c r="L3">
-        <v>1.038442045238666</v>
+        <v>1.038349517955792</v>
       </c>
       <c r="M3">
-        <v>1.046563734799294</v>
+        <v>1.046436033249639</v>
       </c>
       <c r="N3">
-        <v>1.014198274731891</v>
+        <v>1.015308228900831</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045424446686231</v>
+        <v>1.045323380149192</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037562627499157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037050392357587</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021776349684421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012452553647107</v>
+        <v>1.012097887947577</v>
       </c>
       <c r="D4">
-        <v>1.028422260924959</v>
+        <v>1.027598987159658</v>
       </c>
       <c r="E4">
-        <v>1.030132989014321</v>
+        <v>1.030021540930125</v>
       </c>
       <c r="F4">
-        <v>1.038160061758667</v>
+        <v>1.038009469008164</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046697480479545</v>
+        <v>1.046363843004214</v>
       </c>
       <c r="J4">
-        <v>1.031542997993804</v>
+        <v>1.031197110735744</v>
       </c>
       <c r="K4">
-        <v>1.038189341792557</v>
+        <v>1.037375347952094</v>
       </c>
       <c r="L4">
-        <v>1.039880844999387</v>
+        <v>1.039770646956038</v>
       </c>
       <c r="M4">
-        <v>1.047818750685902</v>
+        <v>1.047669815165053</v>
       </c>
       <c r="N4">
-        <v>1.014476275386814</v>
+        <v>1.015514485912952</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046417700217269</v>
+        <v>1.046299828686301</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038071658686896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037504696928581</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021882647107652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013266690076175</v>
+        <v>1.012888676402382</v>
       </c>
       <c r="D5">
-        <v>1.028946864899753</v>
+        <v>1.02809116533172</v>
       </c>
       <c r="E5">
-        <v>1.030958846374392</v>
+        <v>1.030840023816809</v>
       </c>
       <c r="F5">
-        <v>1.038905774932627</v>
+        <v>1.038746291328002</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046857412179909</v>
+        <v>1.046508261012886</v>
       </c>
       <c r="J5">
-        <v>1.031890760505087</v>
+        <v>1.031521829199064</v>
       </c>
       <c r="K5">
-        <v>1.038491875487913</v>
+        <v>1.037645569609338</v>
       </c>
       <c r="L5">
-        <v>1.0404818452763</v>
+        <v>1.040364319742642</v>
       </c>
       <c r="M5">
-        <v>1.048342853228904</v>
+        <v>1.048185078091337</v>
       </c>
       <c r="N5">
-        <v>1.014592899288299</v>
+        <v>1.015601056491064</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046832488754238</v>
+        <v>1.046707621385276</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.0382927628488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037703665178672</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021927337131423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013405897814187</v>
+        <v>1.01302390120211</v>
       </c>
       <c r="D6">
-        <v>1.029039164002504</v>
+        <v>1.028177976996276</v>
       </c>
       <c r="E6">
-        <v>1.031098364878266</v>
+        <v>1.030978286717737</v>
       </c>
       <c r="F6">
-        <v>1.039031836636372</v>
+        <v>1.038870835242864</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046886193048865</v>
+        <v>1.046534404726126</v>
       </c>
       <c r="J6">
-        <v>1.031951803019389</v>
+        <v>1.031578938223556</v>
       </c>
       <c r="K6">
-        <v>1.038546873203636</v>
+        <v>1.037695097659399</v>
       </c>
       <c r="L6">
-        <v>1.040583648358155</v>
+        <v>1.040464874890563</v>
       </c>
       <c r="M6">
-        <v>1.048431738293534</v>
+        <v>1.048272453758852</v>
       </c>
       <c r="N6">
-        <v>1.014613591969932</v>
+        <v>1.015616458526044</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04690283470901</v>
+        <v>1.046776772775631</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038340415470339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037748319061852</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021936050263121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,105 +749,123 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012471332671669</v>
+        <v>1.012122584176246</v>
       </c>
       <c r="D7">
-        <v>1.028441158572759</v>
+        <v>1.02762183265333</v>
       </c>
       <c r="E7">
-        <v>1.030147244324341</v>
+        <v>1.030037904240066</v>
       </c>
       <c r="F7">
-        <v>1.038173146756035</v>
+        <v>1.038024684248403</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046705297396539</v>
+        <v>1.046374302988385</v>
       </c>
       <c r="J7">
-        <v>1.031555336420189</v>
+        <v>1.031215216259092</v>
       </c>
       <c r="K7">
-        <v>1.038205136209079</v>
+        <v>1.037395042171568</v>
       </c>
       <c r="L7">
-        <v>1.039892056402382</v>
+        <v>1.039783942261106</v>
       </c>
       <c r="M7">
-        <v>1.047828837369176</v>
+        <v>1.047682008050199</v>
       </c>
       <c r="N7">
-        <v>1.014481013788172</v>
+        <v>1.015545502100499</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046425683085907</v>
+        <v>1.046309478460488</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038102983740494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037540778082248</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021887964621837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.008495277350025</v>
+        <v>1.008274781405308</v>
       </c>
       <c r="D8">
-        <v>1.025898650117532</v>
+        <v>1.025247929153954</v>
       </c>
       <c r="E8">
-        <v>1.026119721446919</v>
+        <v>1.02605177326766</v>
       </c>
       <c r="F8">
-        <v>1.034536402351838</v>
+        <v>1.034436547235319</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045916619620916</v>
+        <v>1.045667775628927</v>
       </c>
       <c r="J8">
-        <v>1.029859887249964</v>
+        <v>1.029645642826891</v>
       </c>
       <c r="K8">
-        <v>1.036738873114731</v>
+        <v>1.036096425925878</v>
       </c>
       <c r="L8">
-        <v>1.036957136552528</v>
+        <v>1.036890051242134</v>
       </c>
       <c r="M8">
-        <v>1.045268026907256</v>
+        <v>1.045169414312328</v>
       </c>
       <c r="N8">
-        <v>1.013913579479826</v>
+        <v>1.015180409101983</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04439898699048</v>
+        <v>1.044320942148395</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037070780582415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036627575591536</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021672248810456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001228071375745</v>
+        <v>1.00122443413727</v>
       </c>
       <c r="D9">
-        <v>1.021273407952813</v>
+        <v>1.020917849907914</v>
       </c>
       <c r="E9">
-        <v>1.018822063574718</v>
+        <v>1.018824474411547</v>
       </c>
       <c r="F9">
-        <v>1.027945496770484</v>
+        <v>1.027928296276509</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044412148019393</v>
+        <v>1.044304332543416</v>
       </c>
       <c r="J9">
-        <v>1.026737537685304</v>
+        <v>1.026734028447358</v>
       </c>
       <c r="K9">
-        <v>1.034030516629464</v>
+        <v>1.033680427002519</v>
       </c>
       <c r="L9">
-        <v>1.031616972529108</v>
+        <v>1.031619346076169</v>
       </c>
       <c r="M9">
-        <v>1.040600883662924</v>
+        <v>1.040583943242653</v>
       </c>
       <c r="N9">
-        <v>1.012867948165615</v>
+        <v>1.014414957651793</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040705266501846</v>
+        <v>1.040691859298715</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035152609284948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034915835578827</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021248317479781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9962441769693091</v>
+        <v>0.9964196004394386</v>
       </c>
       <c r="D10">
-        <v>1.018133450068705</v>
+        <v>1.018000886676317</v>
       </c>
       <c r="E10">
-        <v>1.013974621374844</v>
+        <v>1.014037004366422</v>
       </c>
       <c r="F10">
-        <v>1.023596873703284</v>
+        <v>1.023647417716532</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043364010379304</v>
+        <v>1.043365847318966</v>
       </c>
       <c r="J10">
-        <v>1.024607605676338</v>
+        <v>1.024775996284486</v>
       </c>
       <c r="K10">
-        <v>1.032182840246843</v>
+        <v>1.032052561729505</v>
       </c>
       <c r="L10">
-        <v>1.02809606202922</v>
+        <v>1.028157358601314</v>
       </c>
       <c r="M10">
-        <v>1.037552760483326</v>
+        <v>1.037602445480328</v>
       </c>
       <c r="N10">
-        <v>1.012157018894761</v>
+        <v>1.014011903045905</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038344324764114</v>
+        <v>1.0383836447729</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033863033302657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033783354482298</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020956411145764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9943589544228864</v>
+        <v>0.9946393806635783</v>
       </c>
       <c r="D11">
-        <v>1.017009664604488</v>
+        <v>1.016982764371146</v>
       </c>
       <c r="E11">
-        <v>1.013120241516489</v>
+        <v>1.013215280052294</v>
       </c>
       <c r="F11">
-        <v>1.023070423343207</v>
+        <v>1.023158845780831</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043115981890504</v>
+        <v>1.043174235407105</v>
       </c>
       <c r="J11">
-        <v>1.023968305152753</v>
+        <v>1.024236880686933</v>
       </c>
       <c r="K11">
-        <v>1.031617777888103</v>
+        <v>1.031591363150655</v>
       </c>
       <c r="L11">
-        <v>1.02779889949163</v>
+        <v>1.027892205857759</v>
       </c>
       <c r="M11">
-        <v>1.037569996596654</v>
+        <v>1.037656847857422</v>
       </c>
       <c r="N11">
-        <v>1.011960171636219</v>
+        <v>1.014107843026831</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03879401396489</v>
+        <v>1.038862712268016</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033496419771305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033493390849448</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02089911270279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9937670957698893</v>
+        <v>0.9940833658224031</v>
       </c>
       <c r="D12">
-        <v>1.016676325217989</v>
+        <v>1.016682147701987</v>
       </c>
       <c r="E12">
-        <v>1.013280892227069</v>
+        <v>1.013384230677174</v>
       </c>
       <c r="F12">
-        <v>1.023389702255596</v>
+        <v>1.023490240249731</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043101966333851</v>
+        <v>1.04317816682757</v>
       </c>
       <c r="J12">
-        <v>1.023837606014013</v>
+        <v>1.0241402563233</v>
       </c>
       <c r="K12">
-        <v>1.031490858424774</v>
+        <v>1.031496574075182</v>
       </c>
       <c r="L12">
-        <v>1.028157999040781</v>
+        <v>1.028259425025939</v>
       </c>
       <c r="M12">
-        <v>1.038082104846962</v>
+        <v>1.03818082966916</v>
       </c>
       <c r="N12">
-        <v>1.011929514403938</v>
+        <v>1.014192507664712</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039525222121324</v>
+        <v>1.039603285876424</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033406683273685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033426373067011</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020899663147063</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9941384496070084</v>
+        <v>0.9944302320666084</v>
       </c>
       <c r="D13">
-        <v>1.016940449482024</v>
+        <v>1.016918269843381</v>
       </c>
       <c r="E13">
-        <v>1.014240709554915</v>
+        <v>1.014331672464568</v>
       </c>
       <c r="F13">
-        <v>1.024395851431589</v>
+        <v>1.024486454129498</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043276819144037</v>
+        <v>1.04333830455471</v>
       </c>
       <c r="J13">
-        <v>1.024099432385964</v>
+        <v>1.024378708564315</v>
       </c>
       <c r="K13">
-        <v>1.031707168672525</v>
+        <v>1.031685394375135</v>
       </c>
       <c r="L13">
-        <v>1.02905693721875</v>
+        <v>1.029146226439279</v>
       </c>
       <c r="M13">
-        <v>1.039027612307622</v>
+        <v>1.039116590600338</v>
       </c>
       <c r="N13">
-        <v>1.012028847935661</v>
+        <v>1.014241732526226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040549205190977</v>
+        <v>1.040619544530591</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033557124603858</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033557132862139</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020948170163926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9948352419438834</v>
+        <v>0.9950828119971655</v>
       </c>
       <c r="D14">
-        <v>1.017397551104773</v>
+        <v>1.017328535673369</v>
       </c>
       <c r="E14">
-        <v>1.015267504023424</v>
+        <v>1.015341213975604</v>
       </c>
       <c r="F14">
-        <v>1.025405417301366</v>
+        <v>1.025479340288339</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043484525035098</v>
+        <v>1.0435211091917</v>
       </c>
       <c r="J14">
-        <v>1.02446043422593</v>
+        <v>1.024697540878721</v>
       </c>
       <c r="K14">
-        <v>1.032015216307513</v>
+        <v>1.031947446925834</v>
       </c>
       <c r="L14">
-        <v>1.029923728047746</v>
+        <v>1.029996100162481</v>
       </c>
       <c r="M14">
-        <v>1.039879980322592</v>
+        <v>1.039952595793835</v>
       </c>
       <c r="N14">
-        <v>1.012157377622082</v>
+        <v>1.014261285735423</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041396107327374</v>
+        <v>1.041453503766622</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033776352582418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033743975359657</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021004288739021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9952175576500916</v>
+        <v>0.9954417005104769</v>
       </c>
       <c r="D15">
-        <v>1.017643687251635</v>
+        <v>1.017550321861503</v>
       </c>
       <c r="E15">
-        <v>1.015707503350783</v>
+        <v>1.015773006677344</v>
       </c>
       <c r="F15">
-        <v>1.025820117352855</v>
+        <v>1.025885401084591</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043579746274969</v>
+        <v>1.043603372833289</v>
       </c>
       <c r="J15">
-        <v>1.024638351940114</v>
+        <v>1.02485310237775</v>
       </c>
       <c r="K15">
-        <v>1.032170243825451</v>
+        <v>1.032078551601897</v>
       </c>
       <c r="L15">
-        <v>1.030268839376913</v>
+        <v>1.030333163258387</v>
       </c>
       <c r="M15">
-        <v>1.040201677875486</v>
+        <v>1.040265815955675</v>
       </c>
       <c r="N15">
-        <v>1.012218703622572</v>
+        <v>1.014262482780898</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041687868978179</v>
+        <v>1.041738563421862</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033891845247357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033843122741106</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021030041614648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9972465360647005</v>
+        <v>0.9973568446844816</v>
       </c>
       <c r="D16">
-        <v>1.018916042603796</v>
+        <v>1.018703628445518</v>
       </c>
       <c r="E16">
-        <v>1.017580050133135</v>
+        <v>1.017609195981389</v>
       </c>
       <c r="F16">
-        <v>1.027494142382268</v>
+        <v>1.027518035910825</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044000080083436</v>
+        <v>1.043960958965633</v>
       </c>
       <c r="J16">
-        <v>1.025492690056859</v>
+        <v>1.025598602628651</v>
       </c>
       <c r="K16">
-        <v>1.032916259317538</v>
+        <v>1.032707488765859</v>
       </c>
       <c r="L16">
-        <v>1.031603216259856</v>
+        <v>1.031631860615233</v>
       </c>
       <c r="M16">
-        <v>1.041348839229709</v>
+        <v>1.041372331800395</v>
       </c>
       <c r="N16">
-        <v>1.012501912668081</v>
+        <v>1.0142534292876</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042555917254324</v>
+        <v>1.042574486203796</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034422482862042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034291282067717</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021140444849403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9984416070780937</v>
+        <v>0.9984950395680038</v>
       </c>
       <c r="D17">
-        <v>1.019656104583739</v>
+        <v>1.019381957953983</v>
       </c>
       <c r="E17">
-        <v>1.018480017512083</v>
+        <v>1.018492098380171</v>
       </c>
       <c r="F17">
-        <v>1.028246315224255</v>
+        <v>1.028249550707113</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044212560931997</v>
+        <v>1.044141531867678</v>
       </c>
       <c r="J17">
-        <v>1.025959804033283</v>
+        <v>1.026011174285445</v>
       </c>
       <c r="K17">
-        <v>1.033328050475902</v>
+        <v>1.033058476423704</v>
       </c>
       <c r="L17">
-        <v>1.032171602115685</v>
+        <v>1.032183480956123</v>
       </c>
       <c r="M17">
-        <v>1.041776569663089</v>
+        <v>1.041779752351357</v>
       </c>
       <c r="N17">
-        <v>1.012652044479033</v>
+        <v>1.014265100236145</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042765147909195</v>
+        <v>1.042767663812946</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034716231423508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034542288232423</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021196667641235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9990243466551192</v>
+        <v>0.9990558489580809</v>
       </c>
       <c r="D18">
-        <v>1.019994462353496</v>
+        <v>1.019696226395464</v>
       </c>
       <c r="E18">
-        <v>1.018568517858865</v>
+        <v>1.01857540601061</v>
       </c>
       <c r="F18">
-        <v>1.028207838144735</v>
+        <v>1.02820328934689</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044256801262495</v>
+        <v>1.044173577545298</v>
       </c>
       <c r="J18">
-        <v>1.026124263737356</v>
+        <v>1.026154572695541</v>
       </c>
       <c r="K18">
-        <v>1.033476765292529</v>
+        <v>1.03318342285622</v>
       </c>
       <c r="L18">
-        <v>1.032074251332922</v>
+        <v>1.032081026098547</v>
       </c>
       <c r="M18">
-        <v>1.041556805362856</v>
+        <v>1.041552329653782</v>
       </c>
       <c r="N18">
-        <v>1.01269665214641</v>
+        <v>1.014254913682121</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042354064048811</v>
+        <v>1.042350525281779</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034809718095787</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034617835012376</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021206157359499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9990618958303191</v>
+        <v>0.9990975242038604</v>
       </c>
       <c r="D19">
-        <v>1.019984996382519</v>
+        <v>1.019692789848513</v>
       </c>
       <c r="E19">
-        <v>1.017915376532666</v>
+        <v>1.017925971010747</v>
       </c>
       <c r="F19">
-        <v>1.027446172209501</v>
+        <v>1.027443552475082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044157966724193</v>
+        <v>1.0440778347691</v>
       </c>
       <c r="J19">
-        <v>1.026025555715586</v>
+        <v>1.026059842488913</v>
       </c>
       <c r="K19">
-        <v>1.033404711505383</v>
+        <v>1.033117274043494</v>
       </c>
       <c r="L19">
-        <v>1.031368945540202</v>
+        <v>1.031379366267983</v>
       </c>
       <c r="M19">
-        <v>1.040745292651899</v>
+        <v>1.040742714865986</v>
       </c>
       <c r="N19">
-        <v>1.012651345755422</v>
+        <v>1.014209309988984</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04138730387908</v>
+        <v>1.041385265061122</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034765181465288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034578097522338</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021178030673114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9975538922876275</v>
+        <v>0.9976642532540575</v>
       </c>
       <c r="D20">
-        <v>1.018973709118269</v>
+        <v>1.018770015192365</v>
       </c>
       <c r="E20">
-        <v>1.015240279445252</v>
+        <v>1.015279971191445</v>
       </c>
       <c r="F20">
-        <v>1.024733972934128</v>
+        <v>1.024760098758429</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04365266585832</v>
+        <v>1.04361745840392</v>
       </c>
       <c r="J20">
-        <v>1.025179434025705</v>
+        <v>1.025285511898807</v>
       </c>
       <c r="K20">
-        <v>1.032690936433882</v>
+        <v>1.032490655230167</v>
       </c>
       <c r="L20">
-        <v>1.029020337873035</v>
+        <v>1.029059358498094</v>
       </c>
       <c r="M20">
-        <v>1.038355414600594</v>
+        <v>1.038381109143222</v>
       </c>
       <c r="N20">
-        <v>1.012349694883324</v>
+        <v>1.014050783491297</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038968990249578</v>
+        <v>1.038989324792889</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034264437179006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034139364464075</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02103784793642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.993760429473585</v>
+        <v>0.9940953604233285</v>
       </c>
       <c r="D21">
-        <v>1.016578472365768</v>
+        <v>1.016608230284705</v>
       </c>
       <c r="E21">
-        <v>1.011381165152833</v>
+        <v>1.011501971186202</v>
       </c>
       <c r="F21">
-        <v>1.021224612309241</v>
+        <v>1.021334714102009</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042811380161736</v>
+        <v>1.042900472779701</v>
       </c>
       <c r="J21">
-        <v>1.023521360972034</v>
+        <v>1.023842043529462</v>
       </c>
       <c r="K21">
-        <v>1.031252423311258</v>
+        <v>1.031281641143611</v>
       </c>
       <c r="L21">
-        <v>1.026150078950317</v>
+        <v>1.026268663237834</v>
       </c>
       <c r="M21">
-        <v>1.035814734069811</v>
+        <v>1.035922861340003</v>
       </c>
       <c r="N21">
-        <v>1.011793199177436</v>
+        <v>1.014079965084388</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036917341087624</v>
+        <v>1.03700291699525</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033250576642995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033288094489839</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020818911467622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9913449438213155</v>
+        <v>0.9918212316020403</v>
       </c>
       <c r="D22">
-        <v>1.015055556079693</v>
+        <v>1.015232588027661</v>
       </c>
       <c r="E22">
-        <v>1.008996742335873</v>
+        <v>1.009169990258385</v>
       </c>
       <c r="F22">
-        <v>1.019071040396329</v>
+        <v>1.019234121050126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04227407843843</v>
+        <v>1.042441469462556</v>
       </c>
       <c r="J22">
-        <v>1.022469773074259</v>
+        <v>1.022924644124035</v>
       </c>
       <c r="K22">
-        <v>1.030334545472446</v>
+        <v>1.030508205906518</v>
       </c>
       <c r="L22">
-        <v>1.024392054333977</v>
+        <v>1.024561950666182</v>
       </c>
       <c r="M22">
-        <v>1.034273932575909</v>
+        <v>1.034433939250756</v>
       </c>
       <c r="N22">
-        <v>1.011440512665185</v>
+        <v>1.014091084578169</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03569789286535</v>
+        <v>1.035824528260143</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032588057026679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032726400849947</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020676611627429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9926223696648624</v>
+        <v>0.9930136992328349</v>
       </c>
       <c r="D23">
-        <v>1.015854521292025</v>
+        <v>1.015946244410807</v>
       </c>
       <c r="E23">
-        <v>1.01026081079919</v>
+        <v>1.010402067409253</v>
       </c>
       <c r="F23">
-        <v>1.020212772590168</v>
+        <v>1.020344136010128</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042555483101261</v>
+        <v>1.04267672695813</v>
       </c>
       <c r="J23">
-        <v>1.023022364935608</v>
+        <v>1.023396603438707</v>
       </c>
       <c r="K23">
-        <v>1.030812612580772</v>
+        <v>1.030902632498881</v>
       </c>
       <c r="L23">
-        <v>1.025323535023504</v>
+        <v>1.025462130736232</v>
       </c>
       <c r="M23">
-        <v>1.035090376643784</v>
+        <v>1.035219327976974</v>
       </c>
       <c r="N23">
-        <v>1.011625191558519</v>
+        <v>1.014041678498277</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036344057652389</v>
+        <v>1.036446114572256</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032916418063139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032994682693982</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020747421139268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9975752654817351</v>
+        <v>0.9976851433338397</v>
       </c>
       <c r="D24">
-        <v>1.018972776600902</v>
+        <v>1.018768671651767</v>
       </c>
       <c r="E24">
-        <v>1.0151733049003</v>
+        <v>1.015213141746825</v>
       </c>
       <c r="F24">
-        <v>1.024649870563784</v>
+        <v>1.024675914782056</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043637137597339</v>
+        <v>1.043601764136975</v>
       </c>
       <c r="J24">
-        <v>1.025166974124458</v>
+        <v>1.025272593881057</v>
       </c>
       <c r="K24">
-        <v>1.032674704462673</v>
+        <v>1.032474014746822</v>
       </c>
       <c r="L24">
-        <v>1.028939098789958</v>
+        <v>1.028978262812209</v>
       </c>
       <c r="M24">
-        <v>1.038257506665959</v>
+        <v>1.038283121409346</v>
       </c>
       <c r="N24">
-        <v>1.012343120447509</v>
+        <v>1.014041601295748</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038850638865989</v>
+        <v>1.038870911264202</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034225496030889</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034097462327858</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021030759816411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003149833960311</v>
+        <v>1.003080499279023</v>
       </c>
       <c r="D25">
-        <v>1.022502953174592</v>
+        <v>1.022063664208651</v>
       </c>
       <c r="E25">
-        <v>1.020738105199588</v>
+        <v>1.020718712788598</v>
       </c>
       <c r="F25">
-        <v>1.029676170567595</v>
+        <v>1.029634032658005</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044822654213552</v>
+        <v>1.044673854835711</v>
       </c>
       <c r="J25">
-        <v>1.02757165662982</v>
+        <v>1.027504635219661</v>
       </c>
       <c r="K25">
-        <v>1.034761701836624</v>
+        <v>1.034328859995352</v>
       </c>
       <c r="L25">
-        <v>1.033022797970949</v>
+        <v>1.03300369127057</v>
       </c>
       <c r="M25">
-        <v>1.041830629248388</v>
+        <v>1.041789098597915</v>
       </c>
       <c r="N25">
-        <v>1.013148271021863</v>
+        <v>1.01458810484181</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041678526747826</v>
+        <v>1.041645658075405</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035698250485723</v>
+        <v>1.035405770527126</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02136570767951</v>
       </c>
     </row>
   </sheetData>
